--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$V$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$W$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -600,16 +600,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23609,14 +23612,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="22" width="10" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="12"/>
+    <col min="2" max="23" width="10" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23631,7 +23634,7 @@
     </row>
     <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23644,7 +23647,7 @@
     </row>
     <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23675,6 +23678,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -23701,6 +23705,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -23768,6 +23773,9 @@
       </c>
       <c r="V10" s="8">
         <v>2020</v>
+      </c>
+      <c r="W10" s="8">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23793,6 +23801,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -23861,7 +23870,9 @@
       <c r="V12" s="10">
         <v>101457.69004163149</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="10">
+        <v>118443.22187388869</v>
+      </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -24003,7 +24014,9 @@
       <c r="V13" s="10">
         <v>203334.74085322424</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10">
+        <v>249584.40415496996</v>
+      </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -24145,7 +24158,9 @@
       <c r="V14" s="10">
         <v>24915.309839812449</v>
       </c>
-      <c r="W14" s="11"/>
+      <c r="W14" s="10">
+        <v>25872.368164253421</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -24243,7 +24258,7 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
@@ -24385,7 +24400,9 @@
       <c r="V16" s="16">
         <v>329707.74073466822</v>
       </c>
-      <c r="W16" s="11"/>
+      <c r="W16" s="16">
+        <v>393899.99419311207</v>
+      </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
@@ -24483,6 +24500,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -24509,6 +24527,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
@@ -24533,7 +24552,7 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
@@ -24631,7 +24650,7 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="14"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
@@ -24731,6 +24750,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -24757,10 +24777,11 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24783,6 +24804,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -24807,6 +24829,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -24833,10 +24856,11 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24859,6 +24883,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -24885,6 +24910,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -24909,6 +24935,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -24935,6 +24962,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -25002,6 +25030,9 @@
       </c>
       <c r="V30" s="19">
         <v>2020</v>
+      </c>
+      <c r="W30" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="31" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25027,6 +25058,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -25095,7 +25127,9 @@
       <c r="V32" s="10">
         <v>96740.252433065718</v>
       </c>
-      <c r="W32" s="11"/>
+      <c r="W32" s="10">
+        <v>108052.8877364151</v>
+      </c>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
@@ -25237,7 +25271,9 @@
       <c r="V33" s="10">
         <v>191711.49763897798</v>
       </c>
-      <c r="W33" s="11"/>
+      <c r="W33" s="10">
+        <v>226903.40011598705</v>
+      </c>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
@@ -25379,7 +25415,9 @@
       <c r="V34" s="10">
         <v>22478.506173764123</v>
       </c>
-      <c r="W34" s="11"/>
+      <c r="W34" s="10">
+        <v>22641.481461240721</v>
+      </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
@@ -25477,7 +25515,7 @@
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="11"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
@@ -25619,7 +25657,9 @@
       <c r="V36" s="16">
         <v>310930.2562458078</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="16">
+        <v>357597.76931364287</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -25717,6 +25757,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
     </row>
     <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
@@ -25743,6 +25784,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
     </row>
     <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
@@ -25767,7 +25809,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
-      <c r="W39" s="11"/>
+      <c r="W39" s="14"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
@@ -25865,7 +25907,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
-      <c r="W40" s="11"/>
+      <c r="W40" s="14"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
@@ -25965,6 +26007,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
     </row>
     <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -25991,10 +26034,11 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
     </row>
     <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26017,6 +26061,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
     </row>
     <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -26041,6 +26086,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
     </row>
     <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -26067,10 +26113,11 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
     </row>
     <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26093,6 +26140,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -26119,6 +26167,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
     </row>
     <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -26143,6 +26192,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
     </row>
     <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -26168,7 +26218,8 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="V49" s="3"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
@@ -26232,9 +26283,12 @@
         <v>41</v>
       </c>
       <c r="U50" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="V50" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W50" s="20"/>
     </row>
     <row r="51" spans="1:91" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
@@ -26259,6 +26313,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
     </row>
     <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
@@ -26324,8 +26379,10 @@
       <c r="U52" s="21">
         <v>47.588326493724679</v>
       </c>
-      <c r="V52" s="3"/>
-      <c r="W52" s="11"/>
+      <c r="V52" s="21">
+        <v>16.741492759481787</v>
+      </c>
+      <c r="W52" s="21"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
@@ -26459,8 +26516,10 @@
       <c r="U53" s="21">
         <v>-15.511469304822853</v>
       </c>
-      <c r="V53" s="3"/>
-      <c r="W53" s="11"/>
+      <c r="V53" s="21">
+        <v>22.745578599935712</v>
+      </c>
+      <c r="W53" s="21"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
@@ -26594,8 +26653,10 @@
       <c r="U54" s="21">
         <v>21.817399158525447</v>
       </c>
-      <c r="V54" s="3"/>
-      <c r="W54" s="11"/>
+      <c r="V54" s="21">
+        <v>3.8412459270792567</v>
+      </c>
+      <c r="W54" s="21"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
@@ -26687,8 +26748,8 @@
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="11"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
@@ -26822,8 +26883,10 @@
       <c r="U56" s="21">
         <v>-4.6826063022137987E-2</v>
       </c>
-      <c r="V56" s="3"/>
-      <c r="W56" s="11"/>
+      <c r="V56" s="21">
+        <v>19.469440819135173</v>
+      </c>
+      <c r="W56" s="21"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
@@ -26915,7 +26978,8 @@
       <c r="S57" s="17"/>
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
-      <c r="V57" s="3"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
     </row>
     <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
@@ -26942,6 +27006,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
     </row>
     <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
@@ -26965,8 +27030,8 @@
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="11"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
@@ -27058,8 +27123,8 @@
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="11"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
@@ -27154,6 +27219,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
     </row>
     <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -27180,10 +27246,11 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
     </row>
     <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27206,6 +27273,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
     </row>
     <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -27230,6 +27298,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
     </row>
     <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -27256,10 +27325,11 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
     </row>
     <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27282,6 +27352,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
     </row>
     <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -27308,6 +27379,7 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
     </row>
     <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -27332,6 +27404,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
     </row>
     <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
@@ -27357,7 +27430,8 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-      <c r="V69" s="3"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
     </row>
     <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -27421,9 +27495,12 @@
         <v>41</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V70" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W70" s="8"/>
     </row>
     <row r="71" spans="1:92" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -27448,6 +27525,7 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
     </row>
     <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
@@ -27513,8 +27591,10 @@
       <c r="U72" s="21">
         <v>41.046953152448253</v>
       </c>
-      <c r="V72" s="3"/>
-      <c r="W72" s="11"/>
+      <c r="V72" s="21">
+        <v>11.693824461721931</v>
+      </c>
+      <c r="W72" s="21"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
@@ -27648,8 +27728,10 @@
       <c r="U73" s="21">
         <v>-18.59867060913713</v>
       </c>
-      <c r="V73" s="3"/>
-      <c r="W73" s="11"/>
+      <c r="V73" s="21">
+        <v>18.356698951505138</v>
+      </c>
+      <c r="W73" s="21"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
@@ -27783,8 +27865,10 @@
       <c r="U74" s="21">
         <v>17.320065713208749</v>
       </c>
-      <c r="V74" s="3"/>
-      <c r="W74" s="11"/>
+      <c r="V74" s="21">
+        <v>0.72502721585128427</v>
+      </c>
+      <c r="W74" s="21"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
@@ -27876,8 +27960,8 @@
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
       <c r="U75" s="14"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="11"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
@@ -28011,8 +28095,10 @@
       <c r="U76" s="21">
         <v>-3.8145499490007353</v>
       </c>
-      <c r="V76" s="3"/>
-      <c r="W76" s="11"/>
+      <c r="V76" s="21">
+        <v>15.008997075839986</v>
+      </c>
+      <c r="W76" s="21"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
@@ -28104,7 +28190,8 @@
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
       <c r="U77" s="17"/>
-      <c r="V77" s="3"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
     </row>
     <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
@@ -28131,6 +28218,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
     </row>
     <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13"/>
@@ -28155,7 +28243,7 @@
       <c r="T79" s="14"/>
       <c r="U79" s="14"/>
       <c r="V79" s="14"/>
-      <c r="W79" s="11"/>
+      <c r="W79" s="14"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
@@ -28248,7 +28336,7 @@
       <c r="T80" s="14"/>
       <c r="U80" s="14"/>
       <c r="V80" s="14"/>
-      <c r="W80" s="11"/>
+      <c r="W80" s="14"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
@@ -28344,10 +28432,11 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
     </row>
     <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28370,6 +28459,7 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
     </row>
     <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -28394,6 +28484,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
     </row>
     <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -28420,10 +28511,11 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
     </row>
     <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28446,6 +28538,7 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
     </row>
     <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -28472,6 +28565,7 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
     </row>
     <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -28496,6 +28590,7 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
     </row>
     <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
@@ -28522,6 +28617,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -28589,6 +28685,9 @@
       </c>
       <c r="V89" s="19">
         <v>2020</v>
+      </c>
+      <c r="W89" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="90" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28614,6 +28713,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
     </row>
     <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
@@ -28682,7 +28782,9 @@
       <c r="V91" s="21">
         <v>104.87639580207811</v>
       </c>
-      <c r="W91" s="11"/>
+      <c r="W91" s="21">
+        <v>109.61597080387138</v>
+      </c>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
@@ -28824,7 +28926,9 @@
       <c r="V92" s="21">
         <v>106.0628826947743</v>
       </c>
-      <c r="W92" s="11"/>
+      <c r="W92" s="21">
+        <v>109.995885485801</v>
+      </c>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
@@ -28966,7 +29070,9 @@
       <c r="V93" s="21">
         <v>110.84059433136375</v>
       </c>
-      <c r="W93" s="11"/>
+      <c r="W93" s="21">
+        <v>114.26976723472603</v>
+      </c>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
@@ -29064,7 +29170,7 @@
       <c r="T94" s="14"/>
       <c r="U94" s="14"/>
       <c r="V94" s="14"/>
-      <c r="W94" s="11"/>
+      <c r="W94" s="14"/>
       <c r="X94" s="11"/>
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
@@ -29206,7 +29312,9 @@
       <c r="V95" s="21">
         <v>106.03913067695019</v>
       </c>
-      <c r="W95" s="11"/>
+      <c r="W95" s="21">
+        <v>110.1516922069022</v>
+      </c>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
@@ -29304,6 +29412,7 @@
       <c r="T96" s="17"/>
       <c r="U96" s="17"/>
       <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
     </row>
     <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
@@ -29330,6 +29439,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
@@ -29354,6 +29464,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
@@ -29378,6 +29489,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
     </row>
     <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -29404,6 +29516,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
     </row>
     <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -29430,10 +29543,11 @@
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
     </row>
     <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29456,6 +29570,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
     </row>
     <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -29480,6 +29595,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
     </row>
     <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -29506,10 +29622,11 @@
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
     </row>
     <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29532,6 +29649,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
     </row>
     <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -29558,6 +29676,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
     </row>
     <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -29582,6 +29701,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
     </row>
     <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
@@ -29608,6 +29728,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -29675,6 +29796,9 @@
       </c>
       <c r="V109" s="19">
         <v>2020</v>
+      </c>
+      <c r="W109" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="110" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29700,6 +29824,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
     </row>
     <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
@@ -29768,7 +29893,9 @@
       <c r="V111" s="21">
         <v>30.772007298208809</v>
       </c>
-      <c r="W111" s="11"/>
+      <c r="W111" s="21">
+        <v>30.069363701442736</v>
+      </c>
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
@@ -29910,7 +30037,9 @@
       <c r="V112" s="21">
         <v>61.671206262899837</v>
       </c>
-      <c r="W112" s="11"/>
+      <c r="W112" s="21">
+        <v>63.362378226542837</v>
+      </c>
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
@@ -30052,7 +30181,9 @@
       <c r="V113" s="21">
         <v>7.556786438891347</v>
       </c>
-      <c r="W113" s="11"/>
+      <c r="W113" s="21">
+        <v>6.5682580720144212</v>
+      </c>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
@@ -30150,7 +30281,7 @@
       <c r="T114" s="14"/>
       <c r="U114" s="14"/>
       <c r="V114" s="14"/>
-      <c r="W114" s="11"/>
+      <c r="W114" s="14"/>
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
@@ -30292,7 +30423,9 @@
       <c r="V115" s="21">
         <v>100</v>
       </c>
-      <c r="W115" s="11"/>
+      <c r="W115" s="21">
+        <v>100</v>
+      </c>
       <c r="X115" s="11"/>
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
@@ -30390,6 +30523,7 @@
       <c r="T116" s="17"/>
       <c r="U116" s="17"/>
       <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
     </row>
     <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
@@ -30416,6 +30550,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
     </row>
     <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
@@ -30440,7 +30575,7 @@
       <c r="T118" s="14"/>
       <c r="U118" s="14"/>
       <c r="V118" s="14"/>
-      <c r="W118" s="11"/>
+      <c r="W118" s="14"/>
       <c r="X118" s="11"/>
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
@@ -30538,7 +30673,7 @@
       <c r="T119" s="14"/>
       <c r="U119" s="14"/>
       <c r="V119" s="14"/>
-      <c r="W119" s="11"/>
+      <c r="W119" s="14"/>
       <c r="X119" s="11"/>
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
@@ -30638,6 +30773,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
     </row>
     <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
@@ -30664,10 +30800,11 @@
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
     </row>
     <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -30690,6 +30827,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
     </row>
     <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
@@ -30714,6 +30852,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
     </row>
     <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -30740,10 +30879,11 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
     </row>
     <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -30766,6 +30906,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
     </row>
     <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -30792,6 +30933,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
     </row>
     <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
@@ -30816,6 +30958,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
     </row>
     <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
@@ -30842,6 +30985,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -30909,6 +31053,9 @@
       </c>
       <c r="V129" s="19">
         <v>2020</v>
+      </c>
+      <c r="W129" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="130" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30934,6 +31081,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
     </row>
     <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
@@ -31002,7 +31150,9 @@
       <c r="V131" s="21">
         <v>31.113167821335185</v>
       </c>
-      <c r="W131" s="11"/>
+      <c r="W131" s="21">
+        <v>30.216320404852347</v>
+      </c>
       <c r="X131" s="11"/>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
@@ -31144,7 +31294,9 @@
       <c r="V132" s="21">
         <v>61.657395440931062</v>
       </c>
-      <c r="W132" s="11"/>
+      <c r="W132" s="21">
+        <v>63.452129623597841</v>
+      </c>
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
@@ -31286,7 +31438,9 @@
       <c r="V133" s="21">
         <v>7.2294367377337521</v>
       </c>
-      <c r="W133" s="11"/>
+      <c r="W133" s="21">
+        <v>6.3315499715498129</v>
+      </c>
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
@@ -31384,7 +31538,7 @@
       <c r="T134" s="14"/>
       <c r="U134" s="14"/>
       <c r="V134" s="14"/>
-      <c r="W134" s="11"/>
+      <c r="W134" s="14"/>
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
@@ -31526,7 +31680,9 @@
       <c r="V135" s="21">
         <v>100</v>
       </c>
-      <c r="W135" s="11"/>
+      <c r="W135" s="21">
+        <v>100</v>
+      </c>
       <c r="X135" s="11"/>
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
@@ -31624,6 +31780,7 @@
       <c r="T136" s="17"/>
       <c r="U136" s="17"/>
       <c r="V136" s="17"/>
+      <c r="W136" s="17"/>
     </row>
     <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
@@ -31650,6 +31807,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
     </row>
     <row r="138" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
@@ -31674,7 +31832,7 @@
       <c r="T138" s="22"/>
       <c r="U138" s="22"/>
       <c r="V138" s="22"/>
-      <c r="W138" s="23"/>
+      <c r="W138" s="22"/>
       <c r="X138" s="23"/>
       <c r="Y138" s="23"/>
       <c r="Z138" s="23"/>
@@ -31772,7 +31930,7 @@
       <c r="T139" s="22"/>
       <c r="U139" s="22"/>
       <c r="V139" s="22"/>
-      <c r="W139" s="23"/>
+      <c r="W139" s="22"/>
       <c r="X139" s="23"/>
       <c r="Y139" s="23"/>
       <c r="Z139" s="23"/>
@@ -31853,9 +32011,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="21" man="1"/>
-    <brk id="80" max="21" man="1"/>
-    <brk id="99" max="21" man="1"/>
+    <brk id="40" max="22" man="1"/>
+    <brk id="80" max="22" man="1"/>
+    <brk id="99" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E6D90-70C7-4C4B-80A3-5269D65B984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="3192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -606,19 +607,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -753,9 +754,9 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23350,7 +23351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23402,7 +23403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23603,7 +23604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23612,7 +23613,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23634,7 +23635,7 @@
     </row>
     <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23647,7 +23648,7 @@
     </row>
     <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23868,10 +23869,10 @@
         <v>68743.709243119156</v>
       </c>
       <c r="V12" s="10">
-        <v>101457.69004163149</v>
+        <v>99700.150945028538</v>
       </c>
       <c r="W12" s="10">
-        <v>118443.22187388869</v>
+        <v>115940.35858617921</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -24012,10 +24013,10 @@
         <v>240665.49528104314</v>
       </c>
       <c r="V13" s="10">
-        <v>203334.74085322424</v>
+        <v>202181.77045105398</v>
       </c>
       <c r="W13" s="10">
-        <v>249584.40415496996</v>
+        <v>245327.04764625634</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -24156,10 +24157,10 @@
         <v>20452.997693202466</v>
       </c>
       <c r="V14" s="10">
-        <v>24915.309839812449</v>
+        <v>23378.176941239508</v>
       </c>
       <c r="W14" s="10">
-        <v>25872.368164253421</v>
+        <v>24418.705334693419</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -24398,10 +24399,10 @@
         <v>329862.20221736474</v>
       </c>
       <c r="V16" s="16">
-        <v>329707.74073466822</v>
+        <v>325260.09833732201</v>
       </c>
       <c r="W16" s="16">
-        <v>393899.99419311207</v>
+        <v>385686.11156712897</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -24781,7 +24782,7 @@
     </row>
     <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24860,7 +24861,7 @@
     </row>
     <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -25125,10 +25126,10 @@
         <v>68587.268473999313</v>
       </c>
       <c r="V32" s="10">
-        <v>96740.252433065718</v>
+        <v>95064.432928436872</v>
       </c>
       <c r="W32" s="10">
-        <v>108052.8877364151</v>
+        <v>106654.37350916496</v>
       </c>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
@@ -25269,10 +25270,10 @@
         <v>235513.96405142397</v>
       </c>
       <c r="V33" s="10">
-        <v>191711.49763897798</v>
+        <v>190735.98548264737</v>
       </c>
       <c r="W33" s="10">
-        <v>226903.40011598705</v>
+        <v>222562.51550613804</v>
       </c>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
@@ -25413,10 +25414,10 @@
         <v>19159.984302014698</v>
       </c>
       <c r="V34" s="10">
-        <v>22478.506173764123</v>
+        <v>21102.219097021054</v>
       </c>
       <c r="W34" s="10">
-        <v>22641.481461240721</v>
+        <v>21050.938225200945</v>
       </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -25655,10 +25656,10 @@
         <v>323261.21682743798</v>
       </c>
       <c r="V36" s="16">
-        <v>310930.2562458078</v>
+        <v>306902.63750810525</v>
       </c>
       <c r="W36" s="16">
-        <v>357597.76931364287</v>
+        <v>350267.82724050392</v>
       </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -26038,7 +26039,7 @@
     </row>
     <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26117,7 +26118,7 @@
     </row>
     <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26377,10 +26378,10 @@
         <v>6.6656209031806952</v>
       </c>
       <c r="U52" s="21">
-        <v>47.588326493724679</v>
+        <v>45.031672050789069</v>
       </c>
       <c r="V52" s="21">
-        <v>16.741492759481787</v>
+        <v>16.28905020425195</v>
       </c>
       <c r="W52" s="21"/>
       <c r="X52" s="11"/>
@@ -26514,10 +26515,10 @@
         <v>6.3069283552049598</v>
       </c>
       <c r="U53" s="21">
-        <v>-15.511469304822853</v>
+        <v>-15.990545210915613</v>
       </c>
       <c r="V53" s="21">
-        <v>22.745578599935712</v>
+        <v>21.33984537723066</v>
       </c>
       <c r="W53" s="21"/>
       <c r="X53" s="11"/>
@@ -26651,10 +26652,10 @@
         <v>17.324935734159979</v>
       </c>
       <c r="U54" s="21">
-        <v>21.817399158525447</v>
+        <v>14.301958529087514</v>
       </c>
       <c r="V54" s="21">
-        <v>3.8412459270792567</v>
+        <v>4.4508534436592555</v>
       </c>
       <c r="W54" s="21"/>
       <c r="X54" s="11"/>
@@ -26881,10 +26882,10 @@
         <v>7.0049944317676136</v>
       </c>
       <c r="U56" s="21">
-        <v>-4.6826063022137987E-2</v>
+        <v>-1.3951595087606137</v>
       </c>
       <c r="V56" s="21">
-        <v>19.469440819135173</v>
+        <v>18.5777516328302</v>
       </c>
       <c r="W56" s="21"/>
       <c r="X56" s="11"/>
@@ -27250,7 +27251,7 @@
     </row>
     <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27329,7 +27330,7 @@
     </row>
     <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27589,10 +27590,10 @@
         <v>6.4228808480329036</v>
       </c>
       <c r="U72" s="21">
-        <v>41.046953152448253</v>
+        <v>38.603614116043644</v>
       </c>
       <c r="V72" s="21">
-        <v>11.693824461721931</v>
+        <v>12.191668559631367</v>
       </c>
       <c r="W72" s="21"/>
       <c r="X72" s="11"/>
@@ -27726,10 +27727,10 @@
         <v>4.0313904318844465</v>
       </c>
       <c r="U73" s="21">
-        <v>-18.59867060913713</v>
+        <v>-19.012876263676418</v>
       </c>
       <c r="V73" s="21">
-        <v>18.356698951505138</v>
+        <v>16.686169598754688</v>
       </c>
       <c r="W73" s="21"/>
       <c r="X73" s="11"/>
@@ -27863,10 +27864,10 @@
         <v>9.9077974104740036</v>
       </c>
       <c r="U74" s="21">
-        <v>17.320065713208749</v>
+        <v>10.136933122654625</v>
       </c>
       <c r="V74" s="21">
-        <v>0.72502721585128427</v>
+        <v>-0.24301174954320004</v>
       </c>
       <c r="W74" s="21"/>
       <c r="X74" s="11"/>
@@ -28093,10 +28094,10 @@
         <v>4.8636808767582096</v>
       </c>
       <c r="U76" s="21">
-        <v>-3.8145499490007353</v>
+        <v>-5.0604831225594182</v>
       </c>
       <c r="V76" s="21">
-        <v>15.008997075839986</v>
+        <v>14.129950164163517</v>
       </c>
       <c r="W76" s="21"/>
       <c r="X76" s="11"/>
@@ -28436,7 +28437,7 @@
     </row>
     <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28515,7 +28516,7 @@
     </row>
     <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28780,10 +28781,10 @@
         <v>100.2280900998108</v>
       </c>
       <c r="V91" s="21">
-        <v>104.87639580207811</v>
+        <v>104.87639580207812</v>
       </c>
       <c r="W91" s="21">
-        <v>109.61597080387138</v>
+        <v>108.70661443266205</v>
       </c>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
@@ -28924,10 +28925,10 @@
         <v>102.18735702163899</v>
       </c>
       <c r="V92" s="21">
-        <v>106.0628826947743</v>
+        <v>106.00085240309723</v>
       </c>
       <c r="W92" s="21">
-        <v>109.995885485801</v>
+        <v>110.2283765477527</v>
       </c>
       <c r="X92" s="11"/>
       <c r="Y92" s="11"/>
@@ -29068,10 +29069,10 @@
         <v>106.74850965849593</v>
       </c>
       <c r="V93" s="21">
-        <v>110.84059433136375</v>
+        <v>110.7853957621914</v>
       </c>
       <c r="W93" s="21">
-        <v>114.26976723472603</v>
+        <v>115.99818057259215</v>
       </c>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
@@ -29310,10 +29311,10 @@
         <v>102.04199732176671</v>
       </c>
       <c r="V95" s="21">
-        <v>106.03913067695019</v>
+        <v>105.98152592570402</v>
       </c>
       <c r="W95" s="21">
-        <v>110.1516922069022</v>
+        <v>110.11177207043508</v>
       </c>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
@@ -29547,7 +29548,7 @@
     </row>
     <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29626,7 +29627,7 @@
     </row>
     <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29891,10 +29892,10 @@
         <v>20.840129236092366</v>
       </c>
       <c r="V111" s="21">
-        <v>30.772007298208809</v>
+        <v>30.652438296206601</v>
       </c>
       <c r="W111" s="21">
-        <v>30.069363701442736</v>
+        <v>30.060807249472273</v>
       </c>
       <c r="X111" s="11"/>
       <c r="Y111" s="11"/>
@@ -30035,10 +30036,10 @@
         <v>72.959403551927764</v>
       </c>
       <c r="V112" s="21">
-        <v>61.671206262899837</v>
+        <v>62.160028692291213</v>
       </c>
       <c r="W112" s="21">
-        <v>63.362378226542837</v>
+        <v>63.607954833903058</v>
       </c>
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
@@ -30179,10 +30180,10 @@
         <v>6.2004672119798787</v>
       </c>
       <c r="V113" s="21">
-        <v>7.556786438891347</v>
+        <v>7.1875330115021914</v>
       </c>
       <c r="W113" s="21">
-        <v>6.5682580720144212</v>
+        <v>6.3312379166246755</v>
       </c>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
@@ -30804,7 +30805,7 @@
     </row>
     <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -30883,7 +30884,7 @@
     </row>
     <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31148,10 +31149,10 @@
         <v>21.217289579966007</v>
       </c>
       <c r="V131" s="21">
-        <v>31.113167821335185</v>
+        <v>30.975436933456212</v>
       </c>
       <c r="W131" s="21">
-        <v>30.216320404852347</v>
+        <v>30.449377651785593</v>
       </c>
       <c r="X131" s="11"/>
       <c r="Y131" s="11"/>
@@ -31292,10 +31293,10 @@
         <v>72.855620096593626</v>
       </c>
       <c r="V132" s="21">
-        <v>61.657395440931062</v>
+        <v>62.148695440132883</v>
       </c>
       <c r="W132" s="21">
-        <v>63.452129623597841</v>
+        <v>63.540667511355601</v>
       </c>
       <c r="X132" s="11"/>
       <c r="Y132" s="11"/>
@@ -31436,10 +31437,10 @@
         <v>5.9270903234403791</v>
       </c>
       <c r="V133" s="21">
-        <v>7.2294367377337521</v>
+        <v>6.8758676264109155</v>
       </c>
       <c r="W133" s="21">
-        <v>6.3315499715498129</v>
+        <v>6.0099548368588156</v>
       </c>
       <c r="X133" s="11"/>
       <c r="Y133" s="11"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E6D90-70C7-4C4B-80A3-5269D65B984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A5E68-0FA5-4FF2-836F-0F3528BEF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="5220" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$W$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$X$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -607,13 +607,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -621,11 +624,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -710,48 +713,47 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -777,7 +779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15144,7 +15146,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15853,7 +15855,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15876,7 +15878,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15905,7 +15907,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15968,7 +15970,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15997,7 +15999,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16028,7 +16030,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18422,7 +18424,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18510,7 +18512,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18531,7 +18533,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18588,7 +18590,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18605,7 +18607,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18646,7 +18648,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18659,7 +18661,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18706,7 +18708,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18735,7 +18737,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23152,7 +23154,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23195,7 +23197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23597,7 +23599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23611,52 +23613,52 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="23" width="10" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="12"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="24" width="10" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23680,8 +23682,9 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -23707,8 +23710,9 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -23778,8 +23782,11 @@
       <c r="W10" s="8">
         <v>2021</v>
       </c>
+      <c r="X10" s="8">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -23803,8 +23810,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -23874,7 +23882,9 @@
       <c r="W12" s="10">
         <v>115940.35858617921</v>
       </c>
-      <c r="X12" s="11"/>
+      <c r="X12" s="10">
+        <v>135229.67283038114</v>
+      </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -23948,7 +23958,7 @@
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -24018,7 +24028,9 @@
       <c r="W13" s="10">
         <v>245327.04764625634</v>
       </c>
-      <c r="X13" s="11"/>
+      <c r="X13" s="10">
+        <v>249861.24540317993</v>
+      </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -24092,7 +24104,7 @@
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -24162,7 +24174,9 @@
       <c r="W14" s="10">
         <v>24418.705334693419</v>
       </c>
-      <c r="X14" s="11"/>
+      <c r="X14" s="10">
+        <v>26518.180315850757</v>
+      </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -24236,31 +24250,31 @@
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="11"/>
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
@@ -24334,77 +24348,79 @@
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
     </row>
-    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>46021.823431817866</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>52114.664021836019</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>56419.947873895064</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>60848.963399336804</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>67769.688262930169</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>76212.758628628944</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>83750.955020093985</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>92462.439864680011</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>100411.71534799733</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>111322.54661442093</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>124020.00082896212</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>137392.00639735666</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <v>155557.76469534752</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <v>183781.87101949265</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <v>216742.72071858071</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="15">
         <v>242093.10407217531</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="15">
         <v>269554.258219735</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="15">
         <v>289060.24418118683</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="15">
         <v>308268.04297224031</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="15">
         <v>329862.20221736474</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="15">
         <v>325260.09833732201</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="15">
         <v>385686.11156712897</v>
       </c>
-      <c r="X16" s="11"/>
+      <c r="X16" s="15">
+        <v>411609.09854941186</v>
+      </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -24478,33 +24494,34 @@
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
     </row>
-    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="3"/>
@@ -24529,32 +24546,33 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="11"/>
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
@@ -24628,31 +24646,31 @@
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="11"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -24726,7 +24744,7 @@
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
     </row>
-    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -24752,8 +24770,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -24779,10 +24798,11 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24806,8 +24826,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -24831,8 +24852,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -24858,10 +24880,11 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24885,8 +24908,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -24912,8 +24936,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -24937,8 +24962,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -24964,79 +24990,83 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>2000</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>2001</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>2002</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>2003</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>2004</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>2005</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <v>2006</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>2007</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="18">
         <v>2008</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="18">
         <v>2009</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="18">
         <v>2010</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="18">
         <v>2011</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="18">
         <v>2012</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="18">
         <v>2013</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P30" s="18">
         <v>2014</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="18">
         <v>2015</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="18">
         <v>2016</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="18">
         <v>2017</v>
       </c>
-      <c r="T30" s="19">
+      <c r="T30" s="18">
         <v>2018</v>
       </c>
-      <c r="U30" s="19">
+      <c r="U30" s="18">
         <v>2019</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="18">
         <v>2020</v>
       </c>
-      <c r="W30" s="19">
+      <c r="W30" s="18">
         <v>2021</v>
       </c>
+      <c r="X30" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -25060,8 +25090,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -25131,7 +25162,9 @@
       <c r="W32" s="10">
         <v>106654.37350916496</v>
       </c>
-      <c r="X32" s="11"/>
+      <c r="X32" s="10">
+        <v>119441.89799124374</v>
+      </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
@@ -25205,7 +25238,7 @@
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -25275,7 +25308,9 @@
       <c r="W33" s="10">
         <v>222562.51550613804</v>
       </c>
-      <c r="X33" s="11"/>
+      <c r="X33" s="10">
+        <v>221442.85706830927</v>
+      </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
@@ -25349,7 +25384,7 @@
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -25419,7 +25454,9 @@
       <c r="W34" s="10">
         <v>21050.938225200945</v>
       </c>
-      <c r="X34" s="11"/>
+      <c r="X34" s="10">
+        <v>22110.593765589605</v>
+      </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -25493,31 +25530,31 @@
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="11"/>
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
@@ -25591,77 +25628,79 @@
       <c r="CQ35" s="11"/>
       <c r="CR35" s="11"/>
     </row>
-    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>119268.98835383351</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>128425.66698917678</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>136310.03660196063</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>143311.24689886169</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>154635.5384947258</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>166000.34184917758</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>170604.7605047081</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <v>176545.99018869552</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>177245.35780110012</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>183288.95703723986</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>189569.93470634153</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="15">
         <v>198837.59983737982</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="15">
         <v>211467.86112619273</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="15">
         <v>221737.4783283131</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="15">
         <v>252505.73854423317</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="15">
         <v>270167.99569733499</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="15">
         <v>290082.94940076943</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="15">
         <v>309315.89460990258</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="15">
         <v>308268.04297224031</v>
       </c>
-      <c r="U36" s="16">
+      <c r="U36" s="15">
         <v>323261.21682743798</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="15">
         <v>306902.63750810525</v>
       </c>
-      <c r="W36" s="16">
+      <c r="W36" s="15">
         <v>350267.82724050392</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="15">
+        <v>362995.3488251426</v>
+      </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -25735,33 +25774,34 @@
       <c r="CQ36" s="11"/>
       <c r="CR36" s="11"/>
     </row>
-    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
+    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="3"/>
@@ -25786,32 +25826,33 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="11"/>
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
@@ -25885,31 +25926,31 @@
       <c r="CQ39" s="11"/>
       <c r="CR39" s="11"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="11"/>
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
@@ -25983,7 +26024,7 @@
       <c r="CQ40" s="11"/>
       <c r="CR40" s="11"/>
     </row>
-    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -26009,8 +26050,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -26036,10 +26078,11 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26063,8 +26106,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -26088,8 +26132,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -26115,10 +26160,11 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26142,8 +26188,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -26169,8 +26216,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -26194,8 +26242,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -26221,77 +26270,81 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="20" t="s">
+      <c r="L50" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P50" s="20" t="s">
+      <c r="P50" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R50" s="20" t="s">
+      <c r="R50" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="S50" s="20" t="s">
+      <c r="S50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="T50" s="20" t="s">
+      <c r="T50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="U50" s="20" t="s">
+      <c r="U50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="V50" s="20" t="s">
+      <c r="V50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="W50" s="20"/>
+      <c r="W50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="X50" s="19"/>
     </row>
-    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -26315,76 +26368,79 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>-1.7172052801013251</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>2.0046005989964755</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>-5.4220609145047831</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>7.087087286790819</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>10.149369714089033</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="20">
         <v>4.311084193000994</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="20">
         <v>-3.7693774469512249</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="20">
         <v>7.5867611601175895</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="20">
         <v>11.039912599803415</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="20">
         <v>15.895497744448207</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="20">
         <v>18.179358938150926</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M52" s="20">
         <v>22.626094616770814</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N52" s="20">
         <v>30.714962834206176</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="20">
         <v>63.191207777979059</v>
       </c>
-      <c r="P52" s="21">
+      <c r="P52" s="20">
         <v>28.867331551347917</v>
       </c>
-      <c r="Q52" s="21">
+      <c r="Q52" s="20">
         <v>20.960007774191396</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R52" s="20">
         <v>4.8429930322634931</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S52" s="20">
         <v>5.1858173637296119</v>
       </c>
-      <c r="T52" s="21">
+      <c r="T52" s="20">
         <v>6.6656209031806952</v>
       </c>
-      <c r="U52" s="21">
+      <c r="U52" s="20">
         <v>45.031672050789069</v>
       </c>
-      <c r="V52" s="21">
+      <c r="V52" s="20">
         <v>16.28905020425195</v>
       </c>
-      <c r="W52" s="21"/>
-      <c r="X52" s="11"/>
+      <c r="W52" s="20">
+        <v>16.637273232050646</v>
+      </c>
+      <c r="X52" s="20"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
@@ -26453,75 +26509,77 @@
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
     </row>
-    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>17.164246415008449</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>9.6507710382768437</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>10.522205151222863</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>12.162480837077112</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>12.904545123916321</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="20">
         <v>10.83946417451412</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="20">
         <v>12.576491663572469</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="20">
         <v>8.7399032627804729</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="20">
         <v>10.875753833551613</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="20">
         <v>10.880512513273487</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="20">
         <v>9.6317211585196389</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M53" s="20">
         <v>11.961350315193826</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N53" s="20">
         <v>15.75731502336501</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O53" s="20">
         <v>10.611094918856807</v>
       </c>
-      <c r="P53" s="21">
+      <c r="P53" s="20">
         <v>7.3660070935354582</v>
       </c>
-      <c r="Q53" s="21">
+      <c r="Q53" s="20">
         <v>8.2762157836387331</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R53" s="20">
         <v>7.3201095531874216</v>
       </c>
-      <c r="S53" s="21">
+      <c r="S53" s="20">
         <v>7.6657071951125033</v>
       </c>
-      <c r="T53" s="21">
+      <c r="T53" s="20">
         <v>6.3069283552049598</v>
       </c>
-      <c r="U53" s="21">
+      <c r="U53" s="20">
         <v>-15.990545210915613</v>
       </c>
-      <c r="V53" s="21">
+      <c r="V53" s="20">
         <v>21.33984537723066</v>
       </c>
-      <c r="W53" s="21"/>
-      <c r="X53" s="11"/>
+      <c r="W53" s="20">
+        <v>1.8482257869346626</v>
+      </c>
+      <c r="X53" s="20"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
@@ -26590,75 +26648,77 @@
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>3.6563742977733256</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>4.2606098593673778</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>0.75477111585115608</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>8.2710117880169918</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>10.015669825958057</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="20">
         <v>6.0528549862037409</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="20">
         <v>2.7476174718558184</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="20">
         <v>7.8553443412809401</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="20">
         <v>10.206479483279281</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="20">
         <v>12.333058098063859</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="20">
         <v>18.010685567702339</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M54" s="20">
         <v>15.661401527356333</v>
       </c>
-      <c r="N54" s="21">
+      <c r="N54" s="20">
         <v>32.807540559131439</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="20">
         <v>26.962348990803832</v>
       </c>
-      <c r="P54" s="21">
+      <c r="P54" s="20">
         <v>19.72255699915894</v>
       </c>
-      <c r="Q54" s="21">
+      <c r="Q54" s="20">
         <v>18.386476637420273</v>
       </c>
-      <c r="R54" s="21">
+      <c r="R54" s="20">
         <v>15.366001744734277</v>
       </c>
-      <c r="S54" s="21">
+      <c r="S54" s="20">
         <v>-0.50321526221813428</v>
       </c>
-      <c r="T54" s="21">
+      <c r="T54" s="20">
         <v>17.324935734159979</v>
       </c>
-      <c r="U54" s="21">
+      <c r="U54" s="20">
         <v>14.301958529087514</v>
       </c>
-      <c r="V54" s="21">
+      <c r="V54" s="20">
         <v>4.4508534436592555</v>
       </c>
-      <c r="W54" s="21"/>
-      <c r="X54" s="11"/>
+      <c r="W54" s="20">
+        <v>8.5978144720656502</v>
+      </c>
+      <c r="X54" s="20"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
@@ -26727,31 +26787,31 @@
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="11"/>
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
@@ -26820,75 +26880,77 @@
       <c r="CL55" s="11"/>
       <c r="CM55" s="11"/>
     </row>
-    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>13.239024740175282</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>8.2611754922858864</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>7.8500879429046648</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>11.37361177079444</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <v>12.45847602683618</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="20">
         <v>9.8909900745061776</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="20">
         <v>10.401654336354625</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="20">
         <v>8.5973023153522519</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="20">
         <v>10.866093890150054</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="20">
         <v>11.406004085156567</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="20">
         <v>10.782136332055089</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M56" s="20">
         <v>13.221845123545961</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N56" s="20">
         <v>18.143810679859484</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="20">
         <v>17.934766642783885</v>
       </c>
-      <c r="P56" s="21">
+      <c r="P56" s="20">
         <v>11.696071392639567</v>
       </c>
-      <c r="Q56" s="21">
+      <c r="Q56" s="20">
         <v>11.343220308899291</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="20">
         <v>7.2363857615452645</v>
       </c>
-      <c r="S56" s="21">
+      <c r="S56" s="20">
         <v>6.6449119786302191</v>
       </c>
-      <c r="T56" s="21">
+      <c r="T56" s="20">
         <v>7.0049944317676136</v>
       </c>
-      <c r="U56" s="21">
+      <c r="U56" s="20">
         <v>-1.3951595087606137</v>
       </c>
-      <c r="V56" s="21">
+      <c r="V56" s="20">
         <v>18.5777516328302</v>
       </c>
-      <c r="W56" s="21"/>
-      <c r="X56" s="11"/>
+      <c r="W56" s="20">
+        <v>6.7212653514932157</v>
+      </c>
+      <c r="X56" s="20"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
@@ -26957,33 +27019,34 @@
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
     </row>
-    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
+    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
     </row>
-    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="3"/>
@@ -27008,32 +27071,33 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="11"/>
+    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
@@ -27102,31 +27166,31 @@
       <c r="CL59" s="11"/>
       <c r="CM59" s="11"/>
     </row>
-    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="11"/>
+    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
@@ -27195,7 +27259,7 @@
       <c r="CL60" s="11"/>
       <c r="CM60" s="11"/>
     </row>
-    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -27221,8 +27285,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
@@ -27248,10 +27313,11 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27275,8 +27341,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -27300,8 +27367,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
@@ -27327,10 +27395,11 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27354,8 +27423,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -27381,8 +27451,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -27406,8 +27477,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="2" t="s">
         <v>22</v>
@@ -27433,8 +27505,9 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
@@ -27501,9 +27574,12 @@
       <c r="V70" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W70" s="8"/>
+      <c r="W70" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X70" s="8"/>
     </row>
-    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -27527,76 +27603,79 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>1.1674683810329611</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>-0.84312393109314598</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="20">
         <v>-5.0685404193090022</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>8.3932841540470378</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>16.522260772593086</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <v>4.7573711724204344</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="20">
         <v>-3.9728155646770489</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="20">
         <v>6.6357302520809469</v>
       </c>
-      <c r="J72" s="21">
+      <c r="J72" s="20">
         <v>14.626516086760262</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="20">
         <v>15.911211171233845</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L72" s="20">
         <v>11.413493994617909</v>
       </c>
-      <c r="M72" s="21">
+      <c r="M72" s="20">
         <v>13.257863385347022</v>
       </c>
-      <c r="N72" s="21">
+      <c r="N72" s="20">
         <v>21.321502832502574</v>
       </c>
-      <c r="O72" s="21">
+      <c r="O72" s="20">
         <v>52.712261953141677</v>
       </c>
-      <c r="P72" s="21">
+      <c r="P72" s="20">
         <v>18.360790573674194</v>
       </c>
-      <c r="Q72" s="21">
+      <c r="Q72" s="20">
         <v>14.043847194557046</v>
       </c>
-      <c r="R72" s="21">
+      <c r="R72" s="20">
         <v>14.175237795371487</v>
       </c>
-      <c r="S72" s="21">
+      <c r="S72" s="20">
         <v>-7.0452998111688174</v>
       </c>
-      <c r="T72" s="21">
+      <c r="T72" s="20">
         <v>6.4228808480329036</v>
       </c>
-      <c r="U72" s="21">
+      <c r="U72" s="20">
         <v>38.603614116043644</v>
       </c>
-      <c r="V72" s="21">
+      <c r="V72" s="20">
         <v>12.191668559631367</v>
       </c>
-      <c r="W72" s="21"/>
-      <c r="X72" s="11"/>
+      <c r="W72" s="20">
+        <v>11.989685993495542</v>
+      </c>
+      <c r="X72" s="20"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
@@ -27665,75 +27744,77 @@
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
     </row>
-    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>8.5659008999429602</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>6.9864201588849824</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="20">
         <v>6.2780695312173691</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="20">
         <v>7.8642671286531112</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>6.4494071246443667</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="20">
         <v>2.5692953571079471</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="20">
         <v>4.3035606730780671</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="20">
         <v>-0.2498550727367217</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J73" s="20">
         <v>2.19000454306601</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="20">
         <v>1.8780307420808811</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L73" s="20">
         <v>3.944526363634651</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M73" s="20">
         <v>5.3302588878913184</v>
       </c>
-      <c r="N73" s="21">
+      <c r="N73" s="20">
         <v>2.2316332283192537</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O73" s="20">
         <v>6.5267669695877117</v>
       </c>
-      <c r="P73" s="21">
+      <c r="P73" s="20">
         <v>3.9229260033214643</v>
       </c>
-      <c r="Q73" s="21">
+      <c r="Q73" s="20">
         <v>5.3254580025207758</v>
       </c>
-      <c r="R73" s="21">
+      <c r="R73" s="20">
         <v>4.1250092116283241</v>
       </c>
-      <c r="S73" s="21">
+      <c r="S73" s="20">
         <v>1.6122486765735715</v>
       </c>
-      <c r="T73" s="21">
+      <c r="T73" s="20">
         <v>4.0313904318844465</v>
       </c>
-      <c r="U73" s="21">
+      <c r="U73" s="20">
         <v>-19.012876263676418</v>
       </c>
-      <c r="V73" s="21">
+      <c r="V73" s="20">
         <v>16.686169598754688</v>
       </c>
-      <c r="W73" s="21"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="20">
+        <v>-0.50307592690643332</v>
+      </c>
+      <c r="X73" s="20"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
@@ -27802,75 +27883,77 @@
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
     </row>
-    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>2.7335860632048821</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>2.0632050130435999</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="20">
         <v>-0.4838634345335322</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>7.7999675497155039</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="20">
         <v>11.528002061195863</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="20">
         <v>3.4605881412802262</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="20">
         <v>-0.20895981132441932</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="20">
         <v>3.7816684802940017</v>
       </c>
-      <c r="J74" s="21">
+      <c r="J74" s="20">
         <v>9.0159914362514257</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="20">
         <v>10.713885787725758</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L74" s="20">
         <v>9.4754008842474065</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M74" s="20">
         <v>10.086088531217442</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="20">
         <v>14.136201540489495</v>
       </c>
-      <c r="O74" s="21">
+      <c r="O74" s="20">
         <v>37.189917165542909</v>
       </c>
-      <c r="P74" s="21">
+      <c r="P74" s="20">
         <v>14.403102298618279</v>
       </c>
-      <c r="Q74" s="21">
+      <c r="Q74" s="20">
         <v>11.752181197065781</v>
       </c>
-      <c r="R74" s="21">
+      <c r="R74" s="20">
         <v>11.688970874428222</v>
       </c>
-      <c r="S74" s="21">
+      <c r="S74" s="20">
         <v>1.4243592593780932</v>
       </c>
-      <c r="T74" s="21">
+      <c r="T74" s="20">
         <v>9.9077974104740036</v>
       </c>
-      <c r="U74" s="21">
+      <c r="U74" s="20">
         <v>10.136933122654625</v>
       </c>
-      <c r="V74" s="21">
+      <c r="V74" s="20">
         <v>-0.24301174954320004</v>
       </c>
-      <c r="W74" s="21"/>
-      <c r="X74" s="11"/>
+      <c r="W74" s="20">
+        <v>5.0337687045231263</v>
+      </c>
+      <c r="X74" s="20"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
@@ -27939,31 +28022,31 @@
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="11"/>
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
@@ -28032,75 +28115,77 @@
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
     </row>
-    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>7.6773340343747236</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>6.1392475488940335</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="20">
         <v>5.1362397600591265</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>7.9018861679822834</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="20">
         <v>7.3494123440708279</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="20">
         <v>2.7737404659768288</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="20">
         <v>3.4824524628803886</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="20">
         <v>0.39613905229856528</v>
       </c>
-      <c r="J76" s="21">
+      <c r="J76" s="20">
         <v>3.4097362611446727</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K76" s="20">
         <v>3.4268172892846707</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L76" s="20">
         <v>4.8887842607503273</v>
       </c>
-      <c r="M76" s="21">
+      <c r="M76" s="20">
         <v>6.3520487569466866</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N76" s="20">
         <v>4.8563489257556824</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O76" s="20">
         <v>13.875985443635017</v>
       </c>
-      <c r="P76" s="21">
+      <c r="P76" s="20">
         <v>6.9947943579142873</v>
       </c>
-      <c r="Q76" s="21">
+      <c r="Q76" s="20">
         <v>7.3713222959779614</v>
       </c>
-      <c r="R76" s="21">
+      <c r="R76" s="20">
         <v>6.6301536332497477</v>
       </c>
-      <c r="S76" s="21">
+      <c r="S76" s="20">
         <v>-0.33876423938180267</v>
       </c>
-      <c r="T76" s="21">
+      <c r="T76" s="20">
         <v>4.8636808767582096</v>
       </c>
-      <c r="U76" s="21">
+      <c r="U76" s="20">
         <v>-5.0604831225594182</v>
       </c>
-      <c r="V76" s="21">
+      <c r="V76" s="20">
         <v>14.129950164163517</v>
       </c>
-      <c r="W76" s="21"/>
-      <c r="X76" s="11"/>
+      <c r="W76" s="20">
+        <v>3.6336541911111908</v>
+      </c>
+      <c r="X76" s="20"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
@@ -28169,33 +28254,34 @@
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
     </row>
-    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
+    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
     </row>
-    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="3"/>
@@ -28220,32 +28306,33 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="14"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="11"/>
+    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
@@ -28314,31 +28401,31 @@
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
     </row>
-    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="14"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="11"/>
+    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
@@ -28408,7 +28495,7 @@
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
     </row>
-    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -28434,10 +28521,11 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28461,8 +28549,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -28486,8 +28575,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -28513,10 +28603,11 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28540,8 +28631,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>6</v>
       </c>
@@ -28567,8 +28659,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -28592,8 +28685,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="1" t="s">
         <v>22</v>
@@ -28619,79 +28713,83 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="18">
         <v>2000</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="18">
         <v>2001</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <v>2002</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="18">
         <v>2003</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="18">
         <v>2004</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="18">
         <v>2005</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="18">
         <v>2006</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I89" s="18">
         <v>2007</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J89" s="18">
         <v>2008</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K89" s="18">
         <v>2009</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L89" s="18">
         <v>2010</v>
       </c>
-      <c r="M89" s="19">
+      <c r="M89" s="18">
         <v>2011</v>
       </c>
-      <c r="N89" s="19">
+      <c r="N89" s="18">
         <v>2012</v>
       </c>
-      <c r="O89" s="19">
+      <c r="O89" s="18">
         <v>2013</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="18">
         <v>2014</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q89" s="18">
         <v>2015</v>
       </c>
-      <c r="R89" s="19">
+      <c r="R89" s="18">
         <v>2016</v>
       </c>
-      <c r="S89" s="19">
+      <c r="S89" s="18">
         <v>2017</v>
       </c>
-      <c r="T89" s="19">
+      <c r="T89" s="18">
         <v>2018</v>
       </c>
-      <c r="U89" s="19">
+      <c r="U89" s="18">
         <v>2019</v>
       </c>
-      <c r="V89" s="19">
+      <c r="V89" s="18">
         <v>2020</v>
       </c>
-      <c r="W89" s="19">
+      <c r="W89" s="18">
         <v>2021</v>
       </c>
+      <c r="X89" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -28715,78 +28813,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>69.508153934367385</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <v>67.526209104697926</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="20">
         <v>69.465520322588432</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="20">
         <v>69.206833842343173</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="20">
         <v>68.372854594799406</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="20">
         <v>64.633373822606202</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="20">
         <v>64.358022953735087</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="20">
         <v>64.494368459721287</v>
       </c>
-      <c r="J91" s="21">
+      <c r="J91" s="20">
         <v>65.069561574210226</v>
       </c>
-      <c r="K91" s="21">
+      <c r="K91" s="20">
         <v>63.033569166832393</v>
       </c>
-      <c r="L91" s="21">
+      <c r="L91" s="20">
         <v>63.02502406266057</v>
       </c>
-      <c r="M91" s="21">
+      <c r="M91" s="20">
         <v>66.852377335429111</v>
       </c>
-      <c r="N91" s="21">
+      <c r="N91" s="20">
         <v>72.382134921600581</v>
       </c>
-      <c r="O91" s="21">
+      <c r="O91" s="20">
         <v>77.986406821880863</v>
       </c>
-      <c r="P91" s="21">
+      <c r="P91" s="20">
         <v>83.337747452346903</v>
       </c>
-      <c r="Q91" s="21">
+      <c r="Q91" s="20">
         <v>90.735395392608766</v>
       </c>
-      <c r="R91" s="21">
+      <c r="R91" s="20">
         <v>96.238020744429122</v>
       </c>
-      <c r="S91" s="21">
+      <c r="S91" s="20">
         <v>88.371895107680189</v>
       </c>
-      <c r="T91" s="21">
+      <c r="T91" s="20">
         <v>100</v>
       </c>
-      <c r="U91" s="21">
+      <c r="U91" s="20">
         <v>100.2280900998108</v>
       </c>
-      <c r="V91" s="21">
+      <c r="V91" s="20">
         <v>104.87639580207812</v>
       </c>
-      <c r="W91" s="21">
+      <c r="W91" s="20">
         <v>108.70661443266205</v>
       </c>
-      <c r="X91" s="11"/>
+      <c r="X91" s="20">
+        <v>113.21795375379484</v>
+      </c>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
@@ -28860,77 +28961,79 @@
       <c r="CQ91" s="11"/>
       <c r="CR91" s="11"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>34.340146213370367</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <v>37.059862438564807</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="20">
         <v>37.982787768075724</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="20">
         <v>39.499602132738673</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="20">
         <v>41.073596337526922</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="20">
         <v>43.564316949757973</v>
       </c>
-      <c r="H92" s="21">
+      <c r="H92" s="20">
         <v>47.076910600081035</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="20">
         <v>50.810858224945477</v>
       </c>
-      <c r="J92" s="21">
+      <c r="J92" s="20">
         <v>55.390072987947192</v>
       </c>
-      <c r="K92" s="21">
+      <c r="K92" s="20">
         <v>60.098011785936535</v>
       </c>
-      <c r="L92" s="21">
+      <c r="L92" s="20">
         <v>65.408590049443717</v>
       </c>
-      <c r="M92" s="21">
+      <c r="M92" s="20">
         <v>68.987339271587516</v>
       </c>
-      <c r="N92" s="21">
+      <c r="N92" s="20">
         <v>73.330453575741416</v>
       </c>
-      <c r="O92" s="21">
+      <c r="O92" s="20">
         <v>83.032385841038561</v>
       </c>
-      <c r="P92" s="21">
+      <c r="P92" s="20">
         <v>86.215918992681722</v>
       </c>
-      <c r="Q92" s="21">
+      <c r="Q92" s="20">
         <v>89.072347422628312</v>
       </c>
-      <c r="R92" s="21">
+      <c r="R92" s="20">
         <v>91.5677642688904</v>
       </c>
-      <c r="S92" s="21">
+      <c r="S92" s="20">
         <v>94.37754260270745</v>
       </c>
-      <c r="T92" s="21">
+      <c r="T92" s="20">
         <v>100</v>
       </c>
-      <c r="U92" s="21">
+      <c r="U92" s="20">
         <v>102.18735702163899</v>
       </c>
-      <c r="V92" s="21">
+      <c r="V92" s="20">
         <v>106.00085240309723</v>
       </c>
-      <c r="W92" s="21">
+      <c r="W92" s="20">
         <v>110.2283765477527</v>
       </c>
-      <c r="X92" s="11"/>
+      <c r="X92" s="20">
+        <v>112.83328291149365</v>
+      </c>
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
@@ -29004,77 +29107,79 @@
       <c r="CQ92" s="11"/>
       <c r="CR92" s="11"/>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>62.751851100813894</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="20">
         <v>63.31550970665284</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="20">
         <v>64.678682731241651</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="20">
         <v>65.483710477184971</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="20">
         <v>65.769849009728176</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="20">
         <v>64.87800246961389</v>
       </c>
-      <c r="H93" s="21">
+      <c r="H93" s="20">
         <v>66.503559580667499</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="20">
         <v>68.473905947786903</v>
       </c>
-      <c r="J93" s="21">
+      <c r="J93" s="20">
         <v>71.161668650503103</v>
       </c>
-      <c r="K93" s="21">
+      <c r="K93" s="20">
         <v>71.938775887880468</v>
       </c>
-      <c r="L93" s="21">
+      <c r="L93" s="20">
         <v>72.990868614357481</v>
       </c>
-      <c r="M93" s="21">
+      <c r="M93" s="20">
         <v>78.68162505721277</v>
       </c>
-      <c r="N93" s="21">
+      <c r="N93" s="20">
         <v>82.666458132778075</v>
       </c>
-      <c r="O93" s="21">
+      <c r="O93" s="20">
         <v>96.189717575750862</v>
       </c>
-      <c r="P93" s="21">
+      <c r="P93" s="20">
         <v>89.018732167050743</v>
       </c>
-      <c r="Q93" s="21">
+      <c r="Q93" s="20">
         <v>93.157877904778758</v>
       </c>
-      <c r="R93" s="21">
+      <c r="R93" s="20">
         <v>98.688301364942973</v>
       </c>
-      <c r="S93" s="21">
+      <c r="S93" s="20">
         <v>101.93732342876834</v>
       </c>
-      <c r="T93" s="21">
+      <c r="T93" s="20">
         <v>100</v>
       </c>
-      <c r="U93" s="21">
+      <c r="U93" s="20">
         <v>106.74850965849593</v>
       </c>
-      <c r="V93" s="21">
+      <c r="V93" s="20">
         <v>110.7853957621914</v>
       </c>
-      <c r="W93" s="21">
+      <c r="W93" s="20">
         <v>115.99818057259215</v>
       </c>
-      <c r="X93" s="11"/>
+      <c r="X93" s="20">
+        <v>119.93427493168734</v>
+      </c>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
@@ -29148,31 +29253,31 @@
       <c r="CQ93" s="11"/>
       <c r="CR93" s="11"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="11"/>
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
@@ -29246,77 +29351,79 @@
       <c r="CQ94" s="11"/>
       <c r="CR94" s="11"/>
     </row>
-    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="15" t="s">
+    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>38.586579853671275</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="20">
         <v>40.579632750693087</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="20">
         <v>41.390897750726261</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="20">
         <v>42.45930777664605</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="20">
         <v>43.825429084816498</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="20">
         <v>45.911205832258666</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H95" s="20">
         <v>49.090631921600306</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="20">
         <v>52.373004771082307</v>
       </c>
-      <c r="J95" s="21">
+      <c r="J95" s="20">
         <v>56.651252587769662</v>
       </c>
-      <c r="K95" s="21">
+      <c r="K95" s="20">
         <v>60.736090386396228</v>
       </c>
-      <c r="L95" s="21">
+      <c r="L95" s="20">
         <v>65.42176691735358</v>
       </c>
-      <c r="M95" s="21">
+      <c r="M95" s="20">
         <v>69.097598497328121</v>
       </c>
-      <c r="N95" s="21">
+      <c r="N95" s="20">
         <v>73.56094863158377</v>
       </c>
-      <c r="O95" s="21">
+      <c r="O95" s="20">
         <v>82.882637795392483</v>
       </c>
-      <c r="P95" s="21">
+      <c r="P95" s="20">
         <v>85.836750470766972</v>
       </c>
-      <c r="Q95" s="21">
+      <c r="Q95" s="20">
         <v>89.608357735824669</v>
       </c>
-      <c r="R95" s="21">
+      <c r="R95" s="20">
         <v>92.92316517622254</v>
       </c>
-      <c r="S95" s="21">
+      <c r="S95" s="20">
         <v>93.451467971194504</v>
       </c>
-      <c r="T95" s="21">
+      <c r="T95" s="20">
         <v>100</v>
       </c>
-      <c r="U95" s="21">
+      <c r="U95" s="20">
         <v>102.04199732176671</v>
       </c>
-      <c r="V95" s="21">
+      <c r="V95" s="20">
         <v>105.98152592570402</v>
       </c>
-      <c r="W95" s="21">
+      <c r="W95" s="20">
         <v>110.11177207043508</v>
       </c>
-      <c r="X95" s="11"/>
+      <c r="X95" s="20">
+        <v>113.39238915363812</v>
+      </c>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
@@ -29390,33 +29497,34 @@
       <c r="CQ95" s="11"/>
       <c r="CR95" s="11"/>
     </row>
-    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
+    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
     </row>
-    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B97" s="3"/>
@@ -29441,9 +29549,10 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A98"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -29466,9 +29575,10 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A99"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -29491,8 +29601,9 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -29518,8 +29629,9 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
@@ -29545,10 +29657,11 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29572,8 +29685,9 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -29597,8 +29711,9 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -29624,10 +29739,11 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29651,8 +29767,9 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>20</v>
       </c>
@@ -29678,8 +29795,9 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -29703,8 +29821,9 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="1" t="s">
         <v>22</v>
@@ -29730,79 +29849,83 @@
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="18">
         <v>2000</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C109" s="18">
         <v>2001</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="18">
         <v>2002</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109" s="18">
         <v>2003</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="18">
         <v>2004</v>
       </c>
-      <c r="G109" s="19">
+      <c r="G109" s="18">
         <v>2005</v>
       </c>
-      <c r="H109" s="19">
+      <c r="H109" s="18">
         <v>2006</v>
       </c>
-      <c r="I109" s="19">
+      <c r="I109" s="18">
         <v>2007</v>
       </c>
-      <c r="J109" s="19">
+      <c r="J109" s="18">
         <v>2008</v>
       </c>
-      <c r="K109" s="19">
+      <c r="K109" s="18">
         <v>2009</v>
       </c>
-      <c r="L109" s="19">
+      <c r="L109" s="18">
         <v>2010</v>
       </c>
-      <c r="M109" s="19">
+      <c r="M109" s="18">
         <v>2011</v>
       </c>
-      <c r="N109" s="19">
+      <c r="N109" s="18">
         <v>2012</v>
       </c>
-      <c r="O109" s="19">
+      <c r="O109" s="18">
         <v>2013</v>
       </c>
-      <c r="P109" s="19">
+      <c r="P109" s="18">
         <v>2014</v>
       </c>
-      <c r="Q109" s="19">
+      <c r="Q109" s="18">
         <v>2015</v>
       </c>
-      <c r="R109" s="19">
+      <c r="R109" s="18">
         <v>2016</v>
       </c>
-      <c r="S109" s="19">
+      <c r="S109" s="18">
         <v>2017</v>
       </c>
-      <c r="T109" s="19">
+      <c r="T109" s="18">
         <v>2018</v>
       </c>
-      <c r="U109" s="19">
+      <c r="U109" s="18">
         <v>2019</v>
       </c>
-      <c r="V109" s="19">
+      <c r="V109" s="18">
         <v>2020</v>
       </c>
-      <c r="W109" s="19">
+      <c r="W109" s="18">
         <v>2021</v>
       </c>
+      <c r="X109" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -29826,78 +29949,81 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="20">
         <v>16.953616620790552</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="20">
         <v>14.714439884343717</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D111" s="20">
         <v>13.864070444601573</v>
       </c>
-      <c r="E111" s="21">
+      <c r="E111" s="20">
         <v>12.15794289088298</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="20">
         <v>11.690010505030752</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="20">
         <v>11.449979891003888</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="20">
         <v>10.868587275525481</v>
       </c>
-      <c r="I111" s="21">
+      <c r="I111" s="20">
         <v>9.4735076759765136</v>
       </c>
-      <c r="J111" s="21">
+      <c r="J111" s="20">
         <v>9.3853529135017872</v>
       </c>
-      <c r="K111" s="21">
+      <c r="K111" s="20">
         <v>9.4000675108671707</v>
       </c>
-      <c r="L111" s="21">
+      <c r="L111" s="20">
         <v>9.7788760305111673</v>
       </c>
-      <c r="M111" s="21">
+      <c r="M111" s="20">
         <v>10.431838008228285</v>
       </c>
-      <c r="N111" s="21">
+      <c r="N111" s="20">
         <v>11.298310438484437</v>
       </c>
-      <c r="O111" s="21">
+      <c r="O111" s="20">
         <v>12.500512896589544</v>
       </c>
-      <c r="P111" s="21">
+      <c r="P111" s="20">
         <v>17.297476015851956</v>
       </c>
-      <c r="Q111" s="21">
+      <c r="Q111" s="20">
         <v>19.956651554023878</v>
       </c>
-      <c r="R111" s="21">
+      <c r="R111" s="20">
         <v>21.680320727427514</v>
       </c>
-      <c r="S111" s="21">
+      <c r="S111" s="20">
         <v>21.196440917146464</v>
       </c>
-      <c r="T111" s="21">
+      <c r="T111" s="20">
         <v>20.906435400488856</v>
       </c>
-      <c r="U111" s="21">
+      <c r="U111" s="20">
         <v>20.840129236092366</v>
       </c>
-      <c r="V111" s="21">
+      <c r="V111" s="20">
         <v>30.652438296206601</v>
       </c>
-      <c r="W111" s="21">
+      <c r="W111" s="20">
         <v>30.060807249472273</v>
       </c>
-      <c r="X111" s="11"/>
+      <c r="X111" s="20">
+        <v>32.853907580506849</v>
+      </c>
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
@@ -29971,77 +30097,79 @@
       <c r="CQ111" s="11"/>
       <c r="CR111" s="11"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="20">
         <v>77.685563142537646</v>
       </c>
-      <c r="C112" s="21">
+      <c r="C112" s="20">
         <v>80.378389727439554</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D112" s="20">
         <v>81.410093400074572</v>
       </c>
-      <c r="E112" s="21">
+      <c r="E112" s="20">
         <v>83.427127559752705</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="20">
         <v>84.018049225794684</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="20">
         <v>84.351308724595285</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="20">
         <v>85.079348681035839</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="20">
         <v>86.755353849610259</v>
       </c>
-      <c r="J112" s="21">
+      <c r="J112" s="20">
         <v>86.869273766492711</v>
       </c>
-      <c r="K112" s="21">
+      <c r="K112" s="20">
         <v>86.876842827857402</v>
       </c>
-      <c r="L112" s="21">
+      <c r="L112" s="20">
         <v>86.4670529868812</v>
       </c>
-      <c r="M112" s="21">
+      <c r="M112" s="20">
         <v>85.569137374666951</v>
       </c>
-      <c r="N112" s="21">
+      <c r="N112" s="20">
         <v>84.616499186354048</v>
       </c>
-      <c r="O112" s="21">
+      <c r="O112" s="20">
         <v>82.907252577378486</v>
       </c>
-      <c r="P112" s="21">
+      <c r="P112" s="20">
         <v>77.758766522807747</v>
       </c>
-      <c r="Q112" s="21">
+      <c r="Q112" s="20">
         <v>74.744332311606215</v>
       </c>
-      <c r="R112" s="21">
+      <c r="R112" s="20">
         <v>72.685462406449048</v>
       </c>
-      <c r="S112" s="21">
+      <c r="S112" s="20">
         <v>72.742210892205222</v>
       </c>
-      <c r="T112" s="21">
+      <c r="T112" s="20">
         <v>73.43849259507715</v>
       </c>
-      <c r="U112" s="21">
+      <c r="U112" s="20">
         <v>72.959403551927764</v>
       </c>
-      <c r="V112" s="21">
+      <c r="V112" s="20">
         <v>62.160028692291213</v>
       </c>
-      <c r="W112" s="21">
+      <c r="W112" s="20">
         <v>63.607954833903058</v>
       </c>
-      <c r="X112" s="11"/>
+      <c r="X112" s="20">
+        <v>60.703528246517905</v>
+      </c>
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
@@ -30115,77 +30243,79 @@
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="20">
         <v>5.360820236671807</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="20">
         <v>4.9071703882167368</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="20">
         <v>4.7258361553238553</v>
       </c>
-      <c r="E113" s="21">
+      <c r="E113" s="20">
         <v>4.4149295493643068</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="20">
         <v>4.2919402691745692</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="20">
         <v>4.1987113844008119</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="20">
         <v>4.0520640434386683</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="20">
         <v>3.7711384744132341</v>
       </c>
-      <c r="J113" s="21">
+      <c r="J113" s="20">
         <v>3.7453733200055037</v>
       </c>
-      <c r="K113" s="21">
+      <c r="K113" s="20">
         <v>3.7230896612754241</v>
       </c>
-      <c r="L113" s="21">
+      <c r="L113" s="20">
         <v>3.7540709826076282</v>
       </c>
-      <c r="M113" s="21">
+      <c r="M113" s="20">
         <v>3.9990246171047619</v>
       </c>
-      <c r="N113" s="21">
+      <c r="N113" s="20">
         <v>4.0851903751615026</v>
       </c>
-      <c r="O113" s="21">
+      <c r="O113" s="20">
         <v>4.592234526031965</v>
       </c>
-      <c r="P113" s="21">
+      <c r="P113" s="20">
         <v>4.9437574613402919</v>
       </c>
-      <c r="Q113" s="21">
+      <c r="Q113" s="20">
         <v>5.2990161343699116</v>
       </c>
-      <c r="R113" s="21">
+      <c r="R113" s="20">
         <v>5.6342168661234249</v>
       </c>
-      <c r="S113" s="21">
+      <c r="S113" s="20">
         <v>6.0613481906483084</v>
       </c>
-      <c r="T113" s="21">
+      <c r="T113" s="20">
         <v>5.6550720044339853</v>
       </c>
-      <c r="U113" s="21">
+      <c r="U113" s="20">
         <v>6.2004672119798787</v>
       </c>
-      <c r="V113" s="21">
+      <c r="V113" s="20">
         <v>7.1875330115021914</v>
       </c>
-      <c r="W113" s="21">
+      <c r="W113" s="20">
         <v>6.3312379166246755</v>
       </c>
-      <c r="X113" s="11"/>
+      <c r="X113" s="20">
+        <v>6.4425641729752403</v>
+      </c>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
@@ -30259,31 +30389,31 @@
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
-      <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
-      <c r="U114" s="14"/>
-      <c r="V114" s="14"/>
-      <c r="W114" s="14"/>
-      <c r="X114" s="11"/>
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="13"/>
+      <c r="X114" s="13"/>
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
@@ -30357,77 +30487,79 @@
       <c r="CQ114" s="11"/>
       <c r="CR114" s="11"/>
     </row>
-    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="21">
+      <c r="B115" s="20">
         <v>100</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="20">
         <v>100</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="20">
         <v>100</v>
       </c>
-      <c r="E115" s="21">
+      <c r="E115" s="20">
         <v>100</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F115" s="20">
         <v>100</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="20">
         <v>100</v>
       </c>
-      <c r="H115" s="21">
+      <c r="H115" s="20">
         <v>100</v>
       </c>
-      <c r="I115" s="21">
+      <c r="I115" s="20">
         <v>100</v>
       </c>
-      <c r="J115" s="21">
+      <c r="J115" s="20">
         <v>100</v>
       </c>
-      <c r="K115" s="21">
+      <c r="K115" s="20">
         <v>100</v>
       </c>
-      <c r="L115" s="21">
+      <c r="L115" s="20">
         <v>100</v>
       </c>
-      <c r="M115" s="21">
+      <c r="M115" s="20">
         <v>100</v>
       </c>
-      <c r="N115" s="21">
+      <c r="N115" s="20">
         <v>100</v>
       </c>
-      <c r="O115" s="21">
+      <c r="O115" s="20">
         <v>100</v>
       </c>
-      <c r="P115" s="21">
+      <c r="P115" s="20">
         <v>100</v>
       </c>
-      <c r="Q115" s="21">
+      <c r="Q115" s="20">
         <v>100</v>
       </c>
-      <c r="R115" s="21">
+      <c r="R115" s="20">
         <v>100</v>
       </c>
-      <c r="S115" s="21">
+      <c r="S115" s="20">
         <v>100</v>
       </c>
-      <c r="T115" s="21">
+      <c r="T115" s="20">
         <v>100</v>
       </c>
-      <c r="U115" s="21">
+      <c r="U115" s="20">
         <v>100</v>
       </c>
-      <c r="V115" s="21">
+      <c r="V115" s="20">
         <v>100</v>
       </c>
-      <c r="W115" s="21">
+      <c r="W115" s="20">
         <v>100</v>
       </c>
-      <c r="X115" s="11"/>
+      <c r="X115" s="20">
+        <v>100</v>
+      </c>
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
@@ -30501,33 +30633,34 @@
       <c r="CQ115" s="11"/>
       <c r="CR115" s="11"/>
     </row>
-    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="17"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="17"/>
+    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
+      <c r="W116" s="16"/>
+      <c r="X116" s="16"/>
     </row>
-    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B117" s="3"/>
@@ -30552,32 +30685,33 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
-      <c r="R118" s="14"/>
-      <c r="S118" s="14"/>
-      <c r="T118" s="14"/>
-      <c r="U118" s="14"/>
-      <c r="V118" s="14"/>
-      <c r="W118" s="14"/>
-      <c r="X118" s="11"/>
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
@@ -30651,31 +30785,31 @@
       <c r="CQ118" s="11"/>
       <c r="CR118" s="11"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="11"/>
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13"/>
+      <c r="V119" s="13"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="13"/>
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
@@ -30749,7 +30883,7 @@
       <c r="CQ119" s="11"/>
       <c r="CR119" s="11"/>
     </row>
-    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>2</v>
       </c>
@@ -30775,8 +30909,9 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -30802,10 +30937,11 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -30829,8 +30965,9 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -30854,8 +30991,9 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -30881,10 +31019,11 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -30908,8 +31047,9 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>21</v>
       </c>
@@ -30935,8 +31075,9 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -30960,8 +31101,9 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="1" t="s">
         <v>22</v>
@@ -30987,79 +31129,83 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="18">
         <v>2000</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="18">
         <v>2001</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="18">
         <v>2002</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="18">
         <v>2003</v>
       </c>
-      <c r="F129" s="19">
+      <c r="F129" s="18">
         <v>2004</v>
       </c>
-      <c r="G129" s="19">
+      <c r="G129" s="18">
         <v>2005</v>
       </c>
-      <c r="H129" s="19">
+      <c r="H129" s="18">
         <v>2006</v>
       </c>
-      <c r="I129" s="19">
+      <c r="I129" s="18">
         <v>2007</v>
       </c>
-      <c r="J129" s="19">
+      <c r="J129" s="18">
         <v>2008</v>
       </c>
-      <c r="K129" s="19">
+      <c r="K129" s="18">
         <v>2009</v>
       </c>
-      <c r="L129" s="19">
+      <c r="L129" s="18">
         <v>2010</v>
       </c>
-      <c r="M129" s="19">
+      <c r="M129" s="18">
         <v>2011</v>
       </c>
-      <c r="N129" s="19">
+      <c r="N129" s="18">
         <v>2012</v>
       </c>
-      <c r="O129" s="19">
+      <c r="O129" s="18">
         <v>2013</v>
       </c>
-      <c r="P129" s="19">
+      <c r="P129" s="18">
         <v>2014</v>
       </c>
-      <c r="Q129" s="19">
+      <c r="Q129" s="18">
         <v>2015</v>
       </c>
-      <c r="R129" s="19">
+      <c r="R129" s="18">
         <v>2016</v>
       </c>
-      <c r="S129" s="19">
+      <c r="S129" s="18">
         <v>2017</v>
       </c>
-      <c r="T129" s="19">
+      <c r="T129" s="18">
         <v>2018</v>
       </c>
-      <c r="U129" s="19">
+      <c r="U129" s="18">
         <v>2019</v>
       </c>
-      <c r="V129" s="19">
+      <c r="V129" s="18">
         <v>2020</v>
       </c>
-      <c r="W129" s="19">
+      <c r="W129" s="18">
         <v>2021</v>
       </c>
+      <c r="X129" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -31083,78 +31229,81 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B131" s="21">
+      <c r="B131" s="20">
         <v>9.4115876270339509</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="20">
         <v>8.8425897818877726</v>
       </c>
-      <c r="D131" s="21">
+      <c r="D131" s="20">
         <v>8.2608799231115722</v>
       </c>
-      <c r="E131" s="21">
+      <c r="E131" s="20">
         <v>7.4590587442687788</v>
       </c>
-      <c r="F131" s="21">
+      <c r="F131" s="20">
         <v>7.4930281823856069</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="20">
         <v>8.1332963523442015</v>
       </c>
-      <c r="H131" s="21">
+      <c r="H131" s="20">
         <v>8.2902766891108364</v>
       </c>
-      <c r="I131" s="21">
+      <c r="I131" s="20">
         <v>7.693013739992935</v>
       </c>
-      <c r="J131" s="21">
+      <c r="J131" s="20">
         <v>8.171132333845037</v>
       </c>
-      <c r="K131" s="21">
+      <c r="K131" s="20">
         <v>9.057449189767107</v>
       </c>
-      <c r="L131" s="21">
+      <c r="L131" s="20">
         <v>10.150751354664228</v>
       </c>
-      <c r="M131" s="21">
+      <c r="M131" s="20">
         <v>10.782188801829214</v>
       </c>
-      <c r="N131" s="21">
+      <c r="N131" s="20">
         <v>11.482314450786053</v>
       </c>
-      <c r="O131" s="21">
+      <c r="O131" s="20">
         <v>13.285334263842108</v>
       </c>
-      <c r="P131" s="21">
+      <c r="P131" s="20">
         <v>17.816165878442497</v>
       </c>
-      <c r="Q131" s="21">
+      <c r="Q131" s="20">
         <v>19.708767057489947</v>
       </c>
-      <c r="R131" s="21">
+      <c r="R131" s="20">
         <v>20.93355628518416</v>
       </c>
-      <c r="S131" s="21">
+      <c r="S131" s="20">
         <v>22.414801867249757</v>
       </c>
-      <c r="T131" s="21">
+      <c r="T131" s="20">
         <v>20.906435400488856</v>
       </c>
-      <c r="U131" s="21">
+      <c r="U131" s="20">
         <v>21.217289579966007</v>
       </c>
-      <c r="V131" s="21">
+      <c r="V131" s="20">
         <v>30.975436933456212</v>
       </c>
-      <c r="W131" s="21">
+      <c r="W131" s="20">
         <v>30.449377651785593</v>
       </c>
-      <c r="X131" s="11"/>
+      <c r="X131" s="20">
+        <v>32.904525740570776</v>
+      </c>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
@@ -31228,77 +31377,79 @@
       <c r="CQ131" s="11"/>
       <c r="CR131" s="11"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="21">
+      <c r="B132" s="20">
         <v>87.292004147315623</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="20">
         <v>88.012348713885132</v>
       </c>
-      <c r="D132" s="21">
+      <c r="D132" s="20">
         <v>88.714837688446835</v>
       </c>
-      <c r="E132" s="21">
+      <c r="E132" s="20">
         <v>89.678323191136684</v>
       </c>
-      <c r="F132" s="21">
+      <c r="F132" s="20">
         <v>89.647057636039236</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="20">
         <v>88.895466937805523</v>
       </c>
-      <c r="H132" s="21">
+      <c r="H132" s="20">
         <v>88.718629514805741</v>
       </c>
-      <c r="I132" s="21">
+      <c r="I132" s="20">
         <v>89.422590363803053</v>
       </c>
-      <c r="J132" s="21">
+      <c r="J132" s="20">
         <v>88.847205009687386</v>
       </c>
-      <c r="K132" s="21">
+      <c r="K132" s="20">
         <v>87.799240302193283</v>
       </c>
-      <c r="L132" s="21">
+      <c r="L132" s="20">
         <v>86.484472181132304</v>
       </c>
-      <c r="M132" s="21">
+      <c r="M132" s="20">
         <v>85.705898509881621</v>
       </c>
-      <c r="N132" s="21">
+      <c r="N132" s="20">
         <v>84.882468967721863</v>
       </c>
-      <c r="O132" s="21">
+      <c r="O132" s="20">
         <v>82.757730208274012</v>
       </c>
-      <c r="P132" s="21">
+      <c r="P132" s="20">
         <v>77.416791665810976</v>
       </c>
-      <c r="Q132" s="21">
+      <c r="Q132" s="20">
         <v>75.194120984873152</v>
       </c>
-      <c r="R132" s="21">
+      <c r="R132" s="20">
         <v>73.761364417185675</v>
       </c>
-      <c r="S132" s="21">
+      <c r="S132" s="20">
         <v>72.028431805680199</v>
       </c>
-      <c r="T132" s="21">
+      <c r="T132" s="20">
         <v>73.43849259507715</v>
       </c>
-      <c r="U132" s="21">
+      <c r="U132" s="20">
         <v>72.855620096593626</v>
       </c>
-      <c r="V132" s="21">
+      <c r="V132" s="20">
         <v>62.148695440132883</v>
       </c>
-      <c r="W132" s="21">
+      <c r="W132" s="20">
         <v>63.540667511355601</v>
       </c>
-      <c r="X132" s="11"/>
+      <c r="X132" s="20">
+        <v>61.004323549881036</v>
+      </c>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
@@ -31372,77 +31523,79 @@
       <c r="CQ132" s="11"/>
       <c r="CR132" s="11"/>
     </row>
-    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="21">
+      <c r="B133" s="20">
         <v>3.2964082256504259</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="20">
         <v>3.1450615042271006</v>
       </c>
-      <c r="D133" s="21">
+      <c r="D133" s="20">
         <v>3.024282388441585</v>
       </c>
-      <c r="E133" s="21">
+      <c r="E133" s="20">
         <v>2.8626180645945389</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133" s="20">
         <v>2.8599141815751556</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="20">
         <v>2.9712367098502721</v>
       </c>
-      <c r="H133" s="21">
+      <c r="H133" s="20">
         <v>2.991093796083427</v>
       </c>
-      <c r="I133" s="21">
+      <c r="I133" s="20">
         <v>2.8843958962040168</v>
       </c>
-      <c r="J133" s="21">
+      <c r="J133" s="20">
         <v>2.9816626564675865</v>
       </c>
-      <c r="K133" s="21">
+      <c r="K133" s="20">
         <v>3.1433105080396135</v>
       </c>
-      <c r="L133" s="21">
+      <c r="L133" s="20">
         <v>3.3647764642034552</v>
       </c>
-      <c r="M133" s="21">
+      <c r="M133" s="20">
         <v>3.511912688289164</v>
       </c>
-      <c r="N133" s="21">
+      <c r="N133" s="20">
         <v>3.6352165814920805</v>
       </c>
-      <c r="O133" s="21">
+      <c r="O133" s="20">
         <v>3.9569355278838612</v>
       </c>
-      <c r="P133" s="21">
+      <c r="P133" s="20">
         <v>4.7670424557465179</v>
       </c>
-      <c r="Q133" s="21">
+      <c r="Q133" s="20">
         <v>5.0971119576368951</v>
       </c>
-      <c r="R133" s="21">
+      <c r="R133" s="20">
         <v>5.3050792976301659</v>
       </c>
-      <c r="S133" s="21">
+      <c r="S133" s="20">
         <v>5.5567663270700436</v>
       </c>
-      <c r="T133" s="21">
+      <c r="T133" s="20">
         <v>5.6550720044339853</v>
       </c>
-      <c r="U133" s="21">
+      <c r="U133" s="20">
         <v>5.9270903234403791</v>
       </c>
-      <c r="V133" s="21">
+      <c r="V133" s="20">
         <v>6.8758676264109155</v>
       </c>
-      <c r="W133" s="21">
+      <c r="W133" s="20">
         <v>6.0099548368588156</v>
       </c>
-      <c r="X133" s="11"/>
+      <c r="X133" s="20">
+        <v>6.0911507095481907</v>
+      </c>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
@@ -31516,31 +31669,31 @@
       <c r="CQ133" s="11"/>
       <c r="CR133" s="11"/>
     </row>
-    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14"/>
-      <c r="U134" s="14"/>
-      <c r="V134" s="14"/>
-      <c r="W134" s="14"/>
-      <c r="X134" s="11"/>
+    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
@@ -31614,77 +31767,79 @@
       <c r="CQ134" s="11"/>
       <c r="CR134" s="11"/>
     </row>
-    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="21">
+      <c r="B135" s="20">
         <v>100</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="20">
         <v>100</v>
       </c>
-      <c r="D135" s="21">
+      <c r="D135" s="20">
         <v>100</v>
       </c>
-      <c r="E135" s="21">
+      <c r="E135" s="20">
         <v>100</v>
       </c>
-      <c r="F135" s="21">
+      <c r="F135" s="20">
         <v>100</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="20">
         <v>100</v>
       </c>
-      <c r="H135" s="21">
+      <c r="H135" s="20">
         <v>100</v>
       </c>
-      <c r="I135" s="21">
+      <c r="I135" s="20">
         <v>100</v>
       </c>
-      <c r="J135" s="21">
+      <c r="J135" s="20">
         <v>100</v>
       </c>
-      <c r="K135" s="21">
+      <c r="K135" s="20">
         <v>100</v>
       </c>
-      <c r="L135" s="21">
+      <c r="L135" s="20">
         <v>100</v>
       </c>
-      <c r="M135" s="21">
+      <c r="M135" s="20">
         <v>100</v>
       </c>
-      <c r="N135" s="21">
+      <c r="N135" s="20">
         <v>100</v>
       </c>
-      <c r="O135" s="21">
+      <c r="O135" s="20">
         <v>100</v>
       </c>
-      <c r="P135" s="21">
+      <c r="P135" s="20">
         <v>100</v>
       </c>
-      <c r="Q135" s="21">
+      <c r="Q135" s="20">
         <v>100</v>
       </c>
-      <c r="R135" s="21">
+      <c r="R135" s="20">
         <v>100</v>
       </c>
-      <c r="S135" s="21">
+      <c r="S135" s="20">
         <v>100</v>
       </c>
-      <c r="T135" s="21">
+      <c r="T135" s="20">
         <v>100</v>
       </c>
-      <c r="U135" s="21">
+      <c r="U135" s="20">
         <v>100</v>
       </c>
-      <c r="V135" s="21">
+      <c r="V135" s="20">
         <v>100</v>
       </c>
-      <c r="W135" s="21">
+      <c r="W135" s="20">
         <v>100</v>
       </c>
-      <c r="X135" s="11"/>
+      <c r="X135" s="20">
+        <v>100</v>
+      </c>
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
@@ -31758,33 +31913,34 @@
       <c r="CQ135" s="11"/>
       <c r="CR135" s="11"/>
     </row>
-    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="17"/>
+    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+      <c r="V136" s="16"/>
+      <c r="W136" s="16"/>
+      <c r="X136" s="16"/>
     </row>
-    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B137" s="3"/>
@@ -31809,202 +31965,203 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
-      <c r="J138" s="22"/>
-      <c r="K138" s="22"/>
-      <c r="L138" s="22"/>
-      <c r="M138" s="22"/>
-      <c r="N138" s="22"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="22"/>
-      <c r="Q138" s="22"/>
-      <c r="R138" s="22"/>
-      <c r="S138" s="22"/>
-      <c r="T138" s="22"/>
-      <c r="U138" s="22"/>
-      <c r="V138" s="22"/>
-      <c r="W138" s="22"/>
-      <c r="X138" s="23"/>
-      <c r="Y138" s="23"/>
-      <c r="Z138" s="23"/>
-      <c r="AA138" s="23"/>
-      <c r="AB138" s="23"/>
-      <c r="AC138" s="23"/>
-      <c r="AD138" s="23"/>
-      <c r="AE138" s="23"/>
-      <c r="AF138" s="23"/>
-      <c r="AG138" s="23"/>
-      <c r="AH138" s="23"/>
-      <c r="AI138" s="23"/>
-      <c r="AJ138" s="23"/>
-      <c r="AK138" s="23"/>
-      <c r="AL138" s="23"/>
-      <c r="AM138" s="23"/>
-      <c r="AN138" s="23"/>
-      <c r="AO138" s="23"/>
-      <c r="AP138" s="23"/>
-      <c r="AQ138" s="23"/>
-      <c r="AR138" s="23"/>
-      <c r="AS138" s="23"/>
-      <c r="AT138" s="23"/>
-      <c r="AU138" s="23"/>
-      <c r="AV138" s="23"/>
-      <c r="AW138" s="23"/>
-      <c r="AX138" s="23"/>
-      <c r="AY138" s="23"/>
-      <c r="AZ138" s="23"/>
-      <c r="BA138" s="23"/>
-      <c r="BB138" s="23"/>
-      <c r="BC138" s="23"/>
-      <c r="BD138" s="23"/>
-      <c r="BE138" s="23"/>
-      <c r="BF138" s="23"/>
-      <c r="BG138" s="23"/>
-      <c r="BH138" s="23"/>
-      <c r="BI138" s="23"/>
-      <c r="BJ138" s="23"/>
-      <c r="BK138" s="23"/>
-      <c r="BL138" s="23"/>
-      <c r="BM138" s="23"/>
-      <c r="BN138" s="23"/>
-      <c r="BO138" s="23"/>
-      <c r="BP138" s="23"/>
-      <c r="BQ138" s="23"/>
-      <c r="BR138" s="23"/>
-      <c r="BS138" s="23"/>
-      <c r="BT138" s="23"/>
-      <c r="BU138" s="23"/>
-      <c r="BV138" s="23"/>
-      <c r="BW138" s="23"/>
-      <c r="BX138" s="23"/>
-      <c r="BY138" s="23"/>
-      <c r="BZ138" s="23"/>
-      <c r="CA138" s="23"/>
-      <c r="CB138" s="23"/>
-      <c r="CC138" s="23"/>
-      <c r="CD138" s="23"/>
-      <c r="CE138" s="23"/>
-      <c r="CF138" s="23"/>
-      <c r="CG138" s="23"/>
-      <c r="CH138" s="23"/>
-      <c r="CI138" s="23"/>
-      <c r="CJ138" s="23"/>
-      <c r="CK138" s="23"/>
-      <c r="CL138" s="23"/>
-      <c r="CM138" s="23"/>
-      <c r="CN138" s="23"/>
-      <c r="CO138" s="23"/>
-      <c r="CP138" s="23"/>
-      <c r="CQ138" s="23"/>
-      <c r="CR138" s="23"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="21"/>
+      <c r="P138" s="21"/>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="21"/>
+      <c r="X138" s="21"/>
+      <c r="Y138" s="22"/>
+      <c r="Z138" s="22"/>
+      <c r="AA138" s="22"/>
+      <c r="AB138" s="22"/>
+      <c r="AC138" s="22"/>
+      <c r="AD138" s="22"/>
+      <c r="AE138" s="22"/>
+      <c r="AF138" s="22"/>
+      <c r="AG138" s="22"/>
+      <c r="AH138" s="22"/>
+      <c r="AI138" s="22"/>
+      <c r="AJ138" s="22"/>
+      <c r="AK138" s="22"/>
+      <c r="AL138" s="22"/>
+      <c r="AM138" s="22"/>
+      <c r="AN138" s="22"/>
+      <c r="AO138" s="22"/>
+      <c r="AP138" s="22"/>
+      <c r="AQ138" s="22"/>
+      <c r="AR138" s="22"/>
+      <c r="AS138" s="22"/>
+      <c r="AT138" s="22"/>
+      <c r="AU138" s="22"/>
+      <c r="AV138" s="22"/>
+      <c r="AW138" s="22"/>
+      <c r="AX138" s="22"/>
+      <c r="AY138" s="22"/>
+      <c r="AZ138" s="22"/>
+      <c r="BA138" s="22"/>
+      <c r="BB138" s="22"/>
+      <c r="BC138" s="22"/>
+      <c r="BD138" s="22"/>
+      <c r="BE138" s="22"/>
+      <c r="BF138" s="22"/>
+      <c r="BG138" s="22"/>
+      <c r="BH138" s="22"/>
+      <c r="BI138" s="22"/>
+      <c r="BJ138" s="22"/>
+      <c r="BK138" s="22"/>
+      <c r="BL138" s="22"/>
+      <c r="BM138" s="22"/>
+      <c r="BN138" s="22"/>
+      <c r="BO138" s="22"/>
+      <c r="BP138" s="22"/>
+      <c r="BQ138" s="22"/>
+      <c r="BR138" s="22"/>
+      <c r="BS138" s="22"/>
+      <c r="BT138" s="22"/>
+      <c r="BU138" s="22"/>
+      <c r="BV138" s="22"/>
+      <c r="BW138" s="22"/>
+      <c r="BX138" s="22"/>
+      <c r="BY138" s="22"/>
+      <c r="BZ138" s="22"/>
+      <c r="CA138" s="22"/>
+      <c r="CB138" s="22"/>
+      <c r="CC138" s="22"/>
+      <c r="CD138" s="22"/>
+      <c r="CE138" s="22"/>
+      <c r="CF138" s="22"/>
+      <c r="CG138" s="22"/>
+      <c r="CH138" s="22"/>
+      <c r="CI138" s="22"/>
+      <c r="CJ138" s="22"/>
+      <c r="CK138" s="22"/>
+      <c r="CL138" s="22"/>
+      <c r="CM138" s="22"/>
+      <c r="CN138" s="22"/>
+      <c r="CO138" s="22"/>
+      <c r="CP138" s="22"/>
+      <c r="CQ138" s="22"/>
+      <c r="CR138" s="22"/>
     </row>
-    <row r="139" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="22"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="22"/>
-      <c r="Q139" s="22"/>
-      <c r="R139" s="22"/>
-      <c r="S139" s="22"/>
-      <c r="T139" s="22"/>
-      <c r="U139" s="22"/>
-      <c r="V139" s="22"/>
-      <c r="W139" s="22"/>
-      <c r="X139" s="23"/>
-      <c r="Y139" s="23"/>
-      <c r="Z139" s="23"/>
-      <c r="AA139" s="23"/>
-      <c r="AB139" s="23"/>
-      <c r="AC139" s="23"/>
-      <c r="AD139" s="23"/>
-      <c r="AE139" s="23"/>
-      <c r="AF139" s="23"/>
-      <c r="AG139" s="23"/>
-      <c r="AH139" s="23"/>
-      <c r="AI139" s="23"/>
-      <c r="AJ139" s="23"/>
-      <c r="AK139" s="23"/>
-      <c r="AL139" s="23"/>
-      <c r="AM139" s="23"/>
-      <c r="AN139" s="23"/>
-      <c r="AO139" s="23"/>
-      <c r="AP139" s="23"/>
-      <c r="AQ139" s="23"/>
-      <c r="AR139" s="23"/>
-      <c r="AS139" s="23"/>
-      <c r="AT139" s="23"/>
-      <c r="AU139" s="23"/>
-      <c r="AV139" s="23"/>
-      <c r="AW139" s="23"/>
-      <c r="AX139" s="23"/>
-      <c r="AY139" s="23"/>
-      <c r="AZ139" s="23"/>
-      <c r="BA139" s="23"/>
-      <c r="BB139" s="23"/>
-      <c r="BC139" s="23"/>
-      <c r="BD139" s="23"/>
-      <c r="BE139" s="23"/>
-      <c r="BF139" s="23"/>
-      <c r="BG139" s="23"/>
-      <c r="BH139" s="23"/>
-      <c r="BI139" s="23"/>
-      <c r="BJ139" s="23"/>
-      <c r="BK139" s="23"/>
-      <c r="BL139" s="23"/>
-      <c r="BM139" s="23"/>
-      <c r="BN139" s="23"/>
-      <c r="BO139" s="23"/>
-      <c r="BP139" s="23"/>
-      <c r="BQ139" s="23"/>
-      <c r="BR139" s="23"/>
-      <c r="BS139" s="23"/>
-      <c r="BT139" s="23"/>
-      <c r="BU139" s="23"/>
-      <c r="BV139" s="23"/>
-      <c r="BW139" s="23"/>
-      <c r="BX139" s="23"/>
-      <c r="BY139" s="23"/>
-      <c r="BZ139" s="23"/>
-      <c r="CA139" s="23"/>
-      <c r="CB139" s="23"/>
-      <c r="CC139" s="23"/>
-      <c r="CD139" s="23"/>
-      <c r="CE139" s="23"/>
-      <c r="CF139" s="23"/>
-      <c r="CG139" s="23"/>
-      <c r="CH139" s="23"/>
-      <c r="CI139" s="23"/>
-      <c r="CJ139" s="23"/>
-      <c r="CK139" s="23"/>
-      <c r="CL139" s="23"/>
-      <c r="CM139" s="23"/>
-      <c r="CN139" s="23"/>
-      <c r="CO139" s="23"/>
-      <c r="CP139" s="23"/>
-      <c r="CQ139" s="23"/>
-      <c r="CR139" s="23"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="22"/>
+      <c r="Z139" s="22"/>
+      <c r="AA139" s="22"/>
+      <c r="AB139" s="22"/>
+      <c r="AC139" s="22"/>
+      <c r="AD139" s="22"/>
+      <c r="AE139" s="22"/>
+      <c r="AF139" s="22"/>
+      <c r="AG139" s="22"/>
+      <c r="AH139" s="22"/>
+      <c r="AI139" s="22"/>
+      <c r="AJ139" s="22"/>
+      <c r="AK139" s="22"/>
+      <c r="AL139" s="22"/>
+      <c r="AM139" s="22"/>
+      <c r="AN139" s="22"/>
+      <c r="AO139" s="22"/>
+      <c r="AP139" s="22"/>
+      <c r="AQ139" s="22"/>
+      <c r="AR139" s="22"/>
+      <c r="AS139" s="22"/>
+      <c r="AT139" s="22"/>
+      <c r="AU139" s="22"/>
+      <c r="AV139" s="22"/>
+      <c r="AW139" s="22"/>
+      <c r="AX139" s="22"/>
+      <c r="AY139" s="22"/>
+      <c r="AZ139" s="22"/>
+      <c r="BA139" s="22"/>
+      <c r="BB139" s="22"/>
+      <c r="BC139" s="22"/>
+      <c r="BD139" s="22"/>
+      <c r="BE139" s="22"/>
+      <c r="BF139" s="22"/>
+      <c r="BG139" s="22"/>
+      <c r="BH139" s="22"/>
+      <c r="BI139" s="22"/>
+      <c r="BJ139" s="22"/>
+      <c r="BK139" s="22"/>
+      <c r="BL139" s="22"/>
+      <c r="BM139" s="22"/>
+      <c r="BN139" s="22"/>
+      <c r="BO139" s="22"/>
+      <c r="BP139" s="22"/>
+      <c r="BQ139" s="22"/>
+      <c r="BR139" s="22"/>
+      <c r="BS139" s="22"/>
+      <c r="BT139" s="22"/>
+      <c r="BU139" s="22"/>
+      <c r="BV139" s="22"/>
+      <c r="BW139" s="22"/>
+      <c r="BX139" s="22"/>
+      <c r="BY139" s="22"/>
+      <c r="BZ139" s="22"/>
+      <c r="CA139" s="22"/>
+      <c r="CB139" s="22"/>
+      <c r="CC139" s="22"/>
+      <c r="CD139" s="22"/>
+      <c r="CE139" s="22"/>
+      <c r="CF139" s="22"/>
+      <c r="CG139" s="22"/>
+      <c r="CH139" s="22"/>
+      <c r="CI139" s="22"/>
+      <c r="CJ139" s="22"/>
+      <c r="CK139" s="22"/>
+      <c r="CL139" s="22"/>
+      <c r="CM139" s="22"/>
+      <c r="CN139" s="22"/>
+      <c r="CO139" s="22"/>
+      <c r="CP139" s="22"/>
+      <c r="CQ139" s="22"/>
+      <c r="CR139" s="22"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -32012,9 +32169,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="22" man="1"/>
-    <brk id="80" max="22" man="1"/>
-    <brk id="99" max="22" man="1"/>
+    <brk id="40" max="23" man="1"/>
+    <brk id="80" max="23" man="1"/>
+    <brk id="99" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A5E68-0FA5-4FF2-836F-0F3528BEF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34D200-6158-46EE-A88B-3156A022DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="5220" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -610,13 +610,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23599,7 +23599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23615,7 +23615,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23637,7 +23637,7 @@
     </row>
     <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23650,7 @@
     </row>
     <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23880,10 +23880,10 @@
         <v>99700.150945028538</v>
       </c>
       <c r="W12" s="10">
-        <v>115940.35858617921</v>
+        <v>117657.82466999651</v>
       </c>
       <c r="X12" s="10">
-        <v>135229.67283038114</v>
+        <v>136012.35612800642</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -24026,10 +24026,10 @@
         <v>202181.77045105398</v>
       </c>
       <c r="W13" s="10">
-        <v>245327.04764625634</v>
+        <v>244415.63126101997</v>
       </c>
       <c r="X13" s="10">
-        <v>249861.24540317993</v>
+        <v>249457.55256417496</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -24172,10 +24172,10 @@
         <v>23378.176941239508</v>
       </c>
       <c r="W14" s="10">
-        <v>24418.705334693419</v>
+        <v>23676.12728350285</v>
       </c>
       <c r="X14" s="10">
-        <v>26518.180315850757</v>
+        <v>26243.085497465829</v>
       </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -24416,10 +24416,10 @@
         <v>325260.09833732201</v>
       </c>
       <c r="W16" s="15">
-        <v>385686.11156712897</v>
+        <v>385749.58321451931</v>
       </c>
       <c r="X16" s="15">
-        <v>411609.09854941186</v>
+        <v>411712.99418964714</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24884,7 +24884,7 @@
     </row>
     <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -25160,10 +25160,10 @@
         <v>95064.432928436872</v>
       </c>
       <c r="W32" s="10">
-        <v>106654.37350916496</v>
+        <v>108220.7317643752</v>
       </c>
       <c r="X32" s="10">
-        <v>119441.89799124374</v>
+        <v>120238.51245071995</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
@@ -25306,10 +25306,10 @@
         <v>190735.98548264737</v>
       </c>
       <c r="W33" s="10">
-        <v>222562.51550613804</v>
+        <v>222610.98979899971</v>
       </c>
       <c r="X33" s="10">
-        <v>221442.85706830927</v>
+        <v>222023.99345514306</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
@@ -25452,10 +25452,10 @@
         <v>21102.219097021054</v>
       </c>
       <c r="W34" s="10">
-        <v>21050.938225200945</v>
+        <v>20640.721368318122</v>
       </c>
       <c r="X34" s="10">
-        <v>22110.593765589605</v>
+        <v>22080.979276418766</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
@@ -25696,10 +25696,10 @@
         <v>306902.63750810525</v>
       </c>
       <c r="W36" s="15">
-        <v>350267.82724050392</v>
+        <v>351472.44293169305</v>
       </c>
       <c r="X36" s="15">
-        <v>362995.3488251426</v>
+        <v>364343.48518228176</v>
       </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -26082,7 +26082,7 @@
     </row>
     <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26164,7 +26164,7 @@
     </row>
     <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26435,10 +26435,10 @@
         <v>45.031672050789069</v>
       </c>
       <c r="V52" s="20">
-        <v>16.28905020425195</v>
+        <v>18.011681581975992</v>
       </c>
       <c r="W52" s="20">
-        <v>16.637273232050646</v>
+        <v>15.59992419500378</v>
       </c>
       <c r="X52" s="20"/>
       <c r="Y52" s="11"/>
@@ -26574,10 +26574,10 @@
         <v>-15.990545210915613</v>
       </c>
       <c r="V53" s="20">
-        <v>21.33984537723066</v>
+        <v>20.88905479249938</v>
       </c>
       <c r="W53" s="20">
-        <v>1.8482257869346626</v>
+        <v>2.062847321647169</v>
       </c>
       <c r="X53" s="20"/>
       <c r="Y53" s="11"/>
@@ -26713,10 +26713,10 @@
         <v>14.301958529087514</v>
       </c>
       <c r="V54" s="20">
-        <v>4.4508534436592555</v>
+        <v>1.2744806535267088</v>
       </c>
       <c r="W54" s="20">
-        <v>8.5978144720656502</v>
+        <v>10.841968296696876</v>
       </c>
       <c r="X54" s="20"/>
       <c r="Y54" s="11"/>
@@ -26945,10 +26945,10 @@
         <v>-1.3951595087606137</v>
       </c>
       <c r="V56" s="20">
-        <v>18.5777516328302</v>
+        <v>18.597265753287886</v>
       </c>
       <c r="W56" s="20">
-        <v>6.7212653514932157</v>
+        <v>6.7306387627875495</v>
       </c>
       <c r="X56" s="20"/>
       <c r="Y56" s="11"/>
@@ -27317,7 +27317,7 @@
     </row>
     <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27670,10 +27670,10 @@
         <v>38.603614116043644</v>
       </c>
       <c r="V72" s="20">
-        <v>12.191668559631367</v>
+        <v>13.839349197866895</v>
       </c>
       <c r="W72" s="20">
-        <v>11.989685993495542</v>
+        <v>11.104878418777105</v>
       </c>
       <c r="X72" s="20"/>
       <c r="Y72" s="11"/>
@@ -27809,10 +27809,10 @@
         <v>-19.012876263676418</v>
       </c>
       <c r="V73" s="20">
-        <v>16.686169598754688</v>
+        <v>16.711583939283557</v>
       </c>
       <c r="W73" s="20">
-        <v>-0.50307592690643332</v>
+        <v>-0.26368704635231666</v>
       </c>
       <c r="X73" s="20"/>
       <c r="Y73" s="11"/>
@@ -27948,10 +27948,10 @@
         <v>10.136933122654625</v>
       </c>
       <c r="V74" s="20">
-        <v>-0.24301174954320004</v>
+        <v>-2.1869630230883104</v>
       </c>
       <c r="W74" s="20">
-        <v>5.0337687045231263</v>
+        <v>6.9777498683322392</v>
       </c>
       <c r="X74" s="20"/>
       <c r="Y74" s="11"/>
@@ -28180,10 +28180,10 @@
         <v>-5.0604831225594182</v>
       </c>
       <c r="V76" s="20">
-        <v>14.129950164163517</v>
+        <v>14.522457605927457</v>
       </c>
       <c r="W76" s="20">
-        <v>3.6336541911111908</v>
+        <v>3.6620345376806966</v>
       </c>
       <c r="X76" s="20"/>
       <c r="Y76" s="11"/>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28607,7 +28607,7 @@
     </row>
     <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28883,10 +28883,10 @@
         <v>104.87639580207812</v>
       </c>
       <c r="W91" s="20">
-        <v>108.70661443266205</v>
+        <v>108.72022647764786</v>
       </c>
       <c r="X91" s="20">
-        <v>113.21795375379484</v>
+        <v>113.11879476532232</v>
       </c>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
@@ -29029,10 +29029,10 @@
         <v>106.00085240309723</v>
       </c>
       <c r="W92" s="20">
-        <v>110.2283765477527</v>
+        <v>109.79495283755224</v>
       </c>
       <c r="X92" s="20">
-        <v>112.83328291149365</v>
+        <v>112.35612362524886</v>
       </c>
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
@@ -29175,10 +29175,10 @@
         <v>110.7853957621914</v>
       </c>
       <c r="W93" s="20">
-        <v>115.99818057259215</v>
+        <v>114.70591003589554</v>
       </c>
       <c r="X93" s="20">
-        <v>119.93427493168734</v>
+        <v>118.84928276479094</v>
       </c>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
@@ -29419,10 +29419,10 @@
         <v>105.98152592570402</v>
       </c>
       <c r="W95" s="20">
-        <v>110.11177207043508</v>
+        <v>109.7524403327085</v>
       </c>
       <c r="X95" s="20">
-        <v>113.39238915363812</v>
+        <v>113.00133279003639</v>
       </c>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
@@ -29661,7 +29661,7 @@
     </row>
     <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29743,7 +29743,7 @@
     </row>
     <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -30019,10 +30019,10 @@
         <v>30.652438296206601</v>
       </c>
       <c r="W111" s="20">
-        <v>30.060807249472273</v>
+        <v>30.501089253171216</v>
       </c>
       <c r="X111" s="20">
-        <v>32.853907580506849</v>
+        <v>33.035721011359456</v>
       </c>
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
@@ -30165,10 +30165,10 @@
         <v>62.160028692291213</v>
       </c>
       <c r="W112" s="20">
-        <v>63.607954833903058</v>
+        <v>63.361217198022977</v>
       </c>
       <c r="X112" s="20">
-        <v>60.703528246517905</v>
+        <v>60.590157727513315</v>
       </c>
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
@@ -30311,10 +30311,10 @@
         <v>7.1875330115021914</v>
       </c>
       <c r="W113" s="20">
-        <v>6.3312379166246755</v>
+        <v>6.1376935488058093</v>
       </c>
       <c r="X113" s="20">
-        <v>6.4425641729752403</v>
+        <v>6.3741212611272333</v>
       </c>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
@@ -30941,7 +30941,7 @@
     </row>
     <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -31023,7 +31023,7 @@
     </row>
     <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31299,10 +31299,10 @@
         <v>30.975436933456212</v>
       </c>
       <c r="W131" s="20">
-        <v>30.449377651785593</v>
+        <v>30.7906733346396</v>
       </c>
       <c r="X131" s="20">
-        <v>32.904525740570776</v>
+        <v>33.001416888397053</v>
       </c>
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
@@ -31445,10 +31445,10 @@
         <v>62.148695440132883</v>
       </c>
       <c r="W132" s="20">
-        <v>63.540667511355601</v>
+        <v>63.336683792949046</v>
       </c>
       <c r="X132" s="20">
-        <v>61.004323549881036</v>
+        <v>60.938098932677235</v>
       </c>
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
@@ -31591,10 +31591,10 @@
         <v>6.8758676264109155</v>
       </c>
       <c r="W133" s="20">
-        <v>6.0099548368588156</v>
+        <v>5.8726428724113502</v>
       </c>
       <c r="X133" s="20">
-        <v>6.0911507095481907</v>
+        <v>6.0604841789257211</v>
       </c>
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34D200-6158-46EE-A88B-3156A022DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503CB33-37AD-41E5-8632-73B5106E63A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$X$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$Y$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23311,9 +23314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23351,7 +23354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23457,7 +23460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23599,7 +23602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23615,14 +23618,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="24" width="10" style="12" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="25" width="10" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23637,7 +23640,7 @@
     </row>
     <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23653,7 @@
     </row>
     <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23683,6 +23686,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -23711,6 +23715,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -23784,6 +23789,9 @@
       </c>
       <c r="X10" s="8">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23811,6 +23819,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -23885,7 +23894,9 @@
       <c r="X12" s="10">
         <v>136012.35612800642</v>
       </c>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="10">
+        <v>150222.8343659252</v>
+      </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -24031,7 +24042,9 @@
       <c r="X13" s="10">
         <v>249457.55256417496</v>
       </c>
-      <c r="Y13" s="11"/>
+      <c r="Y13" s="10">
+        <v>282268.43653466838</v>
+      </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
@@ -24177,7 +24190,9 @@
       <c r="X14" s="10">
         <v>26243.085497465829</v>
       </c>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="10">
+        <v>28118.262945387818</v>
+      </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
@@ -24275,7 +24290,7 @@
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="13"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
@@ -24421,7 +24436,9 @@
       <c r="X16" s="15">
         <v>411712.99418964714</v>
       </c>
-      <c r="Y16" s="11"/>
+      <c r="Y16" s="15">
+        <v>460609.53384598141</v>
+      </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
@@ -24519,6 +24536,7 @@
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
     </row>
     <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -24547,6 +24565,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -24573,7 +24592,7 @@
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="13"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
@@ -24671,7 +24690,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
-      <c r="Y20" s="11"/>
+      <c r="Y20" s="13"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -24771,6 +24790,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -24799,10 +24819,11 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24827,6 +24848,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -24853,6 +24875,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -24881,10 +24904,11 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24909,6 +24933,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -24937,6 +24962,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -24963,6 +24989,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -24991,6 +25018,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -25064,6 +25092,9 @@
       </c>
       <c r="X30" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y30" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="31" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25091,6 +25122,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -25165,7 +25197,9 @@
       <c r="X32" s="10">
         <v>120238.51245071995</v>
       </c>
-      <c r="Y32" s="11"/>
+      <c r="Y32" s="10">
+        <v>127749.94795534157</v>
+      </c>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
@@ -25311,7 +25345,9 @@
       <c r="X33" s="10">
         <v>222023.99345514306</v>
       </c>
-      <c r="Y33" s="11"/>
+      <c r="Y33" s="10">
+        <v>240628.72053084167</v>
+      </c>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
@@ -25457,7 +25493,9 @@
       <c r="X34" s="10">
         <v>22080.979276418766</v>
       </c>
-      <c r="Y34" s="11"/>
+      <c r="Y34" s="10">
+        <v>22816.681374841646</v>
+      </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
@@ -25555,7 +25593,7 @@
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
-      <c r="Y35" s="11"/>
+      <c r="Y35" s="13"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
@@ -25701,7 +25739,9 @@
       <c r="X36" s="15">
         <v>364343.48518228176</v>
       </c>
-      <c r="Y36" s="11"/>
+      <c r="Y36" s="15">
+        <v>391195.34986102494</v>
+      </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
@@ -25799,6 +25839,7 @@
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
     </row>
     <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
@@ -25827,6 +25868,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
@@ -25853,7 +25895,7 @@
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
-      <c r="Y39" s="11"/>
+      <c r="Y39" s="13"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
@@ -25951,7 +25993,7 @@
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
-      <c r="Y40" s="11"/>
+      <c r="Y40" s="13"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
@@ -26051,6 +26093,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -26079,10 +26122,11 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26107,6 +26151,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -26133,6 +26178,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -26161,10 +26207,11 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26189,6 +26236,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -26217,6 +26265,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -26243,6 +26292,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -26271,6 +26321,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -26342,7 +26393,10 @@
       <c r="W50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="X50" s="19"/>
+      <c r="X50" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y50" s="19"/>
     </row>
     <row r="51" spans="1:91" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
@@ -26369,6 +26423,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -26440,8 +26495,10 @@
       <c r="W52" s="20">
         <v>15.59992419500378</v>
       </c>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="11"/>
+      <c r="X52" s="20">
+        <v>10.447931822124133</v>
+      </c>
+      <c r="Y52" s="20"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
@@ -26579,8 +26636,10 @@
       <c r="W53" s="20">
         <v>2.062847321647169</v>
       </c>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="11"/>
+      <c r="X53" s="20">
+        <v>13.15289259965482</v>
+      </c>
+      <c r="Y53" s="20"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
@@ -26718,8 +26777,10 @@
       <c r="W54" s="20">
         <v>10.841968296696876</v>
       </c>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="11"/>
+      <c r="X54" s="20">
+        <v>7.1454153060739287</v>
+      </c>
+      <c r="Y54" s="20"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
@@ -26812,7 +26873,7 @@
       <c r="V55" s="13"/>
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
-      <c r="Y55" s="11"/>
+      <c r="Y55" s="13"/>
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
@@ -26950,8 +27011,10 @@
       <c r="W56" s="20">
         <v>6.7306387627875495</v>
       </c>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="11"/>
+      <c r="X56" s="20">
+        <v>11.87636541629557</v>
+      </c>
+      <c r="Y56" s="20"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
@@ -27044,6 +27107,7 @@
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
     </row>
     <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
@@ -27072,6 +27136,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
     </row>
     <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59"/>
@@ -27098,7 +27163,7 @@
       <c r="V59" s="13"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
-      <c r="Y59" s="11"/>
+      <c r="Y59" s="13"/>
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
@@ -27191,7 +27256,7 @@
       <c r="V60" s="13"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
-      <c r="Y60" s="11"/>
+      <c r="Y60" s="13"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
@@ -27286,6 +27351,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
     </row>
     <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -27314,10 +27380,11 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27342,6 +27409,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
     </row>
     <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
@@ -27368,6 +27436,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -27396,10 +27465,11 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27424,6 +27494,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
     </row>
     <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -27452,6 +27523,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -27478,6 +27550,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
     </row>
     <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
@@ -27506,6 +27579,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
@@ -27577,7 +27651,10 @@
       <c r="W70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X70" s="8"/>
+      <c r="X70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y70" s="8"/>
     </row>
     <row r="71" spans="1:92" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
@@ -27604,6 +27681,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -27675,8 +27753,10 @@
       <c r="W72" s="20">
         <v>11.104878418777105</v>
       </c>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="11"/>
+      <c r="X72" s="20">
+        <v>6.2471128023146463</v>
+      </c>
+      <c r="Y72" s="20"/>
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
       <c r="AB72" s="11"/>
@@ -27814,8 +27894,10 @@
       <c r="W73" s="20">
         <v>-0.26368704635231666</v>
       </c>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="11"/>
+      <c r="X73" s="20">
+        <v>8.3796020358751946</v>
+      </c>
+      <c r="Y73" s="20"/>
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
@@ -27953,8 +28035,10 @@
       <c r="W74" s="20">
         <v>6.9777498683322392</v>
       </c>
-      <c r="X74" s="20"/>
-      <c r="Y74" s="11"/>
+      <c r="X74" s="20">
+        <v>3.3318363701766032</v>
+      </c>
+      <c r="Y74" s="20"/>
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
@@ -28047,7 +28131,7 @@
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
-      <c r="Y75" s="11"/>
+      <c r="Y75" s="13"/>
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
       <c r="AB75" s="11"/>
@@ -28185,8 +28269,10 @@
       <c r="W76" s="20">
         <v>3.6620345376806966</v>
       </c>
-      <c r="X76" s="20"/>
-      <c r="Y76" s="11"/>
+      <c r="X76" s="20">
+        <v>7.3699313342488182</v>
+      </c>
+      <c r="Y76" s="20"/>
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
       <c r="AB76" s="11"/>
@@ -28279,6 +28365,7 @@
       <c r="V77" s="16"/>
       <c r="W77" s="16"/>
       <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
     </row>
     <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
@@ -28307,6 +28394,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
@@ -28333,7 +28421,7 @@
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
-      <c r="Y79" s="11"/>
+      <c r="Y79" s="13"/>
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
       <c r="AB79" s="11"/>
@@ -28426,7 +28514,7 @@
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
-      <c r="Y80" s="11"/>
+      <c r="Y80" s="13"/>
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
       <c r="AB80" s="11"/>
@@ -28522,10 +28610,11 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
     </row>
     <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28550,6 +28639,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
     </row>
     <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -28576,6 +28666,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
     </row>
     <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
@@ -28604,10 +28695,11 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
     </row>
     <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28632,6 +28724,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
     </row>
     <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
@@ -28660,6 +28753,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
     </row>
     <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
@@ -28686,6 +28780,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
     </row>
     <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
@@ -28714,6 +28809,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
@@ -28787,6 +28883,9 @@
       </c>
       <c r="X89" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y89" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="90" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28814,6 +28913,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
     </row>
     <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
@@ -28888,7 +28988,9 @@
       <c r="X91" s="20">
         <v>113.11879476532232</v>
       </c>
-      <c r="Y91" s="11"/>
+      <c r="Y91" s="20">
+        <v>117.59130768369441</v>
+      </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
       <c r="AB91" s="11"/>
@@ -29034,7 +29136,9 @@
       <c r="X92" s="20">
         <v>112.35612362524886</v>
       </c>
-      <c r="Y92" s="11"/>
+      <c r="Y92" s="20">
+        <v>117.30454947853562</v>
+      </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
       <c r="AB92" s="11"/>
@@ -29180,7 +29284,9 @@
       <c r="X93" s="20">
         <v>118.84928276479094</v>
       </c>
-      <c r="Y93" s="11"/>
+      <c r="Y93" s="20">
+        <v>123.23555070717627</v>
+      </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
       <c r="AB93" s="11"/>
@@ -29278,7 +29384,7 @@
       <c r="V94" s="13"/>
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
-      <c r="Y94" s="11"/>
+      <c r="Y94" s="13"/>
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
       <c r="AB94" s="11"/>
@@ -29424,7 +29530,9 @@
       <c r="X95" s="20">
         <v>113.00133279003639</v>
       </c>
-      <c r="Y95" s="11"/>
+      <c r="Y95" s="20">
+        <v>117.74412298347012</v>
+      </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
       <c r="AB95" s="11"/>
@@ -29522,6 +29630,7 @@
       <c r="V96" s="16"/>
       <c r="W96" s="16"/>
       <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
     </row>
     <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
@@ -29550,6 +29659,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98"/>
@@ -29576,6 +29686,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99"/>
@@ -29602,6 +29713,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
     </row>
     <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -29630,6 +29742,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
     </row>
     <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -29658,10 +29771,11 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
     </row>
     <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29686,6 +29800,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
     </row>
     <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
@@ -29712,6 +29827,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
     </row>
     <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
@@ -29740,10 +29856,11 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
     </row>
     <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29768,6 +29885,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
     </row>
     <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
@@ -29796,6 +29914,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
     </row>
     <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
@@ -29822,6 +29941,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
     </row>
     <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
@@ -29850,6 +29970,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
@@ -29923,6 +30044,9 @@
       </c>
       <c r="X109" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y109" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="110" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29950,6 +30074,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
     </row>
     <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
@@ -30024,7 +30149,9 @@
       <c r="X111" s="20">
         <v>33.035721011359456</v>
       </c>
-      <c r="Y111" s="11"/>
+      <c r="Y111" s="20">
+        <v>32.613922059233083</v>
+      </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
       <c r="AB111" s="11"/>
@@ -30170,7 +30297,9 @@
       <c r="X112" s="20">
         <v>60.590157727513315</v>
       </c>
-      <c r="Y112" s="11"/>
+      <c r="Y112" s="20">
+        <v>61.28150109655639</v>
+      </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
       <c r="AB112" s="11"/>
@@ -30316,7 +30445,9 @@
       <c r="X113" s="20">
         <v>6.3741212611272333</v>
       </c>
-      <c r="Y113" s="11"/>
+      <c r="Y113" s="20">
+        <v>6.1045768442105244</v>
+      </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
       <c r="AB113" s="11"/>
@@ -30414,7 +30545,7 @@
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
-      <c r="Y114" s="11"/>
+      <c r="Y114" s="13"/>
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
       <c r="AB114" s="11"/>
@@ -30560,7 +30691,9 @@
       <c r="X115" s="20">
         <v>100</v>
       </c>
-      <c r="Y115" s="11"/>
+      <c r="Y115" s="20">
+        <v>100</v>
+      </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
       <c r="AB115" s="11"/>
@@ -30658,6 +30791,7 @@
       <c r="V116" s="16"/>
       <c r="W116" s="16"/>
       <c r="X116" s="16"/>
+      <c r="Y116" s="16"/>
     </row>
     <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
@@ -30686,6 +30820,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
     </row>
     <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
@@ -30712,7 +30847,7 @@
       <c r="V118" s="13"/>
       <c r="W118" s="13"/>
       <c r="X118" s="13"/>
-      <c r="Y118" s="11"/>
+      <c r="Y118" s="13"/>
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
       <c r="AB118" s="11"/>
@@ -30810,7 +30945,7 @@
       <c r="V119" s="13"/>
       <c r="W119" s="13"/>
       <c r="X119" s="13"/>
-      <c r="Y119" s="11"/>
+      <c r="Y119" s="13"/>
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
       <c r="AB119" s="11"/>
@@ -30910,6 +31045,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
     </row>
     <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
@@ -30938,10 +31074,11 @@
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
     </row>
     <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -30966,6 +31103,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
     </row>
     <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
@@ -30992,6 +31130,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
     </row>
     <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
@@ -31020,10 +31159,11 @@
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
     </row>
     <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31048,6 +31188,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
     </row>
     <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
@@ -31076,6 +31217,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
     </row>
     <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
@@ -31102,6 +31244,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
     </row>
     <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
@@ -31130,6 +31273,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
@@ -31203,6 +31347,9 @@
       </c>
       <c r="X129" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y129" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="130" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31230,6 +31377,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
     </row>
     <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
@@ -31304,7 +31452,9 @@
       <c r="X131" s="20">
         <v>33.001416888397053</v>
       </c>
-      <c r="Y131" s="11"/>
+      <c r="Y131" s="20">
+        <v>32.656305347373298</v>
+      </c>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
       <c r="AB131" s="11"/>
@@ -31450,7 +31600,9 @@
       <c r="X132" s="20">
         <v>60.938098932677235</v>
       </c>
-      <c r="Y132" s="11"/>
+      <c r="Y132" s="20">
+        <v>61.511140307860721</v>
+      </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
       <c r="AB132" s="11"/>
@@ -31596,7 +31748,9 @@
       <c r="X133" s="20">
         <v>6.0604841789257211</v>
       </c>
-      <c r="Y133" s="11"/>
+      <c r="Y133" s="20">
+        <v>5.8325543447659696</v>
+      </c>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
       <c r="AB133" s="11"/>
@@ -31694,7 +31848,7 @@
       <c r="V134" s="13"/>
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
-      <c r="Y134" s="11"/>
+      <c r="Y134" s="13"/>
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
       <c r="AB134" s="11"/>
@@ -31840,7 +31994,9 @@
       <c r="X135" s="20">
         <v>100</v>
       </c>
-      <c r="Y135" s="11"/>
+      <c r="Y135" s="20">
+        <v>100</v>
+      </c>
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
       <c r="AB135" s="11"/>
@@ -31938,6 +32094,7 @@
       <c r="V136" s="16"/>
       <c r="W136" s="16"/>
       <c r="X136" s="16"/>
+      <c r="Y136" s="16"/>
     </row>
     <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
@@ -31966,6 +32123,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
     </row>
     <row r="138" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
@@ -31992,7 +32150,7 @@
       <c r="V138" s="21"/>
       <c r="W138" s="21"/>
       <c r="X138" s="21"/>
-      <c r="Y138" s="22"/>
+      <c r="Y138" s="21"/>
       <c r="Z138" s="22"/>
       <c r="AA138" s="22"/>
       <c r="AB138" s="22"/>
@@ -32090,7 +32248,7 @@
       <c r="V139" s="21"/>
       <c r="W139" s="21"/>
       <c r="X139" s="21"/>
-      <c r="Y139" s="22"/>
+      <c r="Y139" s="21"/>
       <c r="Z139" s="22"/>
       <c r="AA139" s="22"/>
       <c r="AB139" s="22"/>
@@ -32169,9 +32327,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="23" man="1"/>
-    <brk id="80" max="23" man="1"/>
-    <brk id="99" max="23" man="1"/>
+    <brk id="40" max="24" man="1"/>
+    <brk id="80" max="24" man="1"/>
+    <brk id="99" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503CB33-37AD-41E5-8632-73B5106E63A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C61FCD-A9DA-4517-A76B-C70733C522C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -613,13 +613,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23616,52 +23616,52 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
     <col min="2" max="25" width="10" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="12"/>
+    <col min="26" max="16384" width="7.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23688,7 +23688,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -23717,7 +23717,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -23821,7 +23821,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -23892,10 +23892,10 @@
         <v>117657.82466999651</v>
       </c>
       <c r="X12" s="10">
-        <v>136012.35612800642</v>
+        <v>135565.05040438523</v>
       </c>
       <c r="Y12" s="10">
-        <v>150222.8343659252</v>
+        <v>149807.77649253624</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -23969,7 +23969,7 @@
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -24040,10 +24040,10 @@
         <v>244415.63126101997</v>
       </c>
       <c r="X13" s="10">
-        <v>249457.55256417496</v>
+        <v>250005.3417742739</v>
       </c>
       <c r="Y13" s="10">
-        <v>282268.43653466838</v>
+        <v>282959.63563620311</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -24117,7 +24117,7 @@
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -24188,10 +24188,10 @@
         <v>23676.12728350285</v>
       </c>
       <c r="X14" s="10">
-        <v>26243.085497465829</v>
+        <v>26006.370388573847</v>
       </c>
       <c r="Y14" s="10">
-        <v>28118.262945387818</v>
+        <v>27877.098159198817</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -24265,7 +24265,7 @@
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -24363,7 +24363,7 @@
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
     </row>
-    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -24434,10 +24434,10 @@
         <v>385749.58321451931</v>
       </c>
       <c r="X16" s="15">
-        <v>411712.99418964714</v>
+        <v>411576.76256723295</v>
       </c>
       <c r="Y16" s="15">
-        <v>460609.53384598141</v>
+        <v>460644.51028793817</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -24511,7 +24511,7 @@
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
     </row>
-    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -24538,7 +24538,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
     </row>
-    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
@@ -24567,7 +24567,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -24665,7 +24665,7 @@
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -24763,7 +24763,7 @@
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
     </row>
-    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -24792,7 +24792,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -24821,9 +24821,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24850,7 +24850,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -24877,7 +24877,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -24906,9 +24906,9 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24935,7 +24935,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -24964,7 +24964,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -24991,7 +24991,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -25020,7 +25020,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -25124,7 +25124,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -25195,10 +25195,10 @@
         <v>108220.7317643752</v>
       </c>
       <c r="X32" s="10">
-        <v>120238.51245071995</v>
+        <v>119857.69861007963</v>
       </c>
       <c r="Y32" s="10">
-        <v>127749.94795534157</v>
+        <v>127344.07720938073</v>
       </c>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
@@ -25272,7 +25272,7 @@
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -25343,10 +25343,10 @@
         <v>222610.98979899971</v>
       </c>
       <c r="X33" s="10">
-        <v>222023.99345514306</v>
+        <v>222455.3822754485</v>
       </c>
       <c r="Y33" s="10">
-        <v>240628.72053084167</v>
+        <v>241159.04496507344</v>
       </c>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
@@ -25420,7 +25420,7 @@
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -25491,10 +25491,10 @@
         <v>20640.721368318122</v>
       </c>
       <c r="X34" s="10">
-        <v>22080.979276418766</v>
+        <v>21909.711496420761</v>
       </c>
       <c r="Y34" s="10">
-        <v>22816.681374841646</v>
+        <v>22648.289444937906</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -25568,7 +25568,7 @@
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -25666,7 +25666,7 @@
       <c r="CQ35" s="11"/>
       <c r="CR35" s="11"/>
     </row>
-    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -25737,10 +25737,10 @@
         <v>351472.44293169305</v>
       </c>
       <c r="X36" s="15">
-        <v>364343.48518228176</v>
+        <v>364222.79238194891</v>
       </c>
       <c r="Y36" s="15">
-        <v>391195.34986102494</v>
+        <v>391151.41161939205</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -25814,7 +25814,7 @@
       <c r="CQ36" s="11"/>
       <c r="CR36" s="11"/>
     </row>
-    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -25841,7 +25841,7 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
     </row>
-    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
@@ -25870,7 +25870,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -25968,7 +25968,7 @@
       <c r="CQ39" s="11"/>
       <c r="CR39" s="11"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -26066,7 +26066,7 @@
       <c r="CQ40" s="11"/>
       <c r="CR40" s="11"/>
     </row>
-    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -26095,7 +26095,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -26124,9 +26124,9 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26153,7 +26153,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -26180,7 +26180,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -26209,9 +26209,9 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26238,7 +26238,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -26267,7 +26267,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -26294,7 +26294,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -26323,7 +26323,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
@@ -26398,7 +26398,7 @@
       </c>
       <c r="Y50" s="19"/>
     </row>
-    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -26425,7 +26425,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -26493,10 +26493,10 @@
         <v>18.011681581975992</v>
       </c>
       <c r="W52" s="20">
-        <v>15.59992419500378</v>
+        <v>15.219749119630961</v>
       </c>
       <c r="X52" s="20">
-        <v>10.447931822124133</v>
+        <v>10.506193185976414</v>
       </c>
       <c r="Y52" s="20"/>
       <c r="Z52" s="11"/>
@@ -26566,7 +26566,7 @@
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
     </row>
-    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -26634,10 +26634,10 @@
         <v>20.88905479249938</v>
       </c>
       <c r="W53" s="20">
-        <v>2.062847321647169</v>
+        <v>2.2869693253311283</v>
       </c>
       <c r="X53" s="20">
-        <v>13.15289259965482</v>
+        <v>13.181435895751051</v>
       </c>
       <c r="Y53" s="20"/>
       <c r="Z53" s="11"/>
@@ -26707,7 +26707,7 @@
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
     </row>
-    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -26775,10 +26775,10 @@
         <v>1.2744806535267088</v>
       </c>
       <c r="W54" s="20">
-        <v>10.841968296696876</v>
+        <v>9.8421632776686039</v>
       </c>
       <c r="X54" s="20">
-        <v>7.1454153060739287</v>
+        <v>7.1933443332288078</v>
       </c>
       <c r="Y54" s="20"/>
       <c r="Z54" s="11"/>
@@ -26848,7 +26848,7 @@
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
     </row>
-    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -26941,7 +26941,7 @@
       <c r="CL55" s="11"/>
       <c r="CM55" s="11"/>
     </row>
-    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
@@ -27009,10 +27009,10 @@
         <v>18.597265753287886</v>
       </c>
       <c r="W56" s="20">
-        <v>6.7306387627875495</v>
+        <v>6.6953226851189811</v>
       </c>
       <c r="X56" s="20">
-        <v>11.87636541629557</v>
+        <v>11.921894573114969</v>
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="11"/>
@@ -27082,7 +27082,7 @@
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
     </row>
-    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -27109,7 +27109,7 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
     </row>
-    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>0</v>
       </c>
@@ -27138,7 +27138,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -27231,7 +27231,7 @@
       <c r="CL59" s="11"/>
       <c r="CM59" s="11"/>
     </row>
-    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -27324,7 +27324,7 @@
       <c r="CL60" s="11"/>
       <c r="CM60" s="11"/>
     </row>
-    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -27353,7 +27353,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
@@ -27382,9 +27382,9 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27411,7 +27411,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -27438,7 +27438,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
@@ -27467,9 +27467,9 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27496,7 +27496,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -27525,7 +27525,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -27552,7 +27552,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="2" t="s">
         <v>22</v>
@@ -27581,7 +27581,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
@@ -27656,7 +27656,7 @@
       </c>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -27683,7 +27683,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -27751,10 +27751,10 @@
         <v>13.839349197866895</v>
       </c>
       <c r="W72" s="20">
-        <v>11.104878418777105</v>
+        <v>10.752992200275585</v>
       </c>
       <c r="X72" s="20">
-        <v>6.2471128023146463</v>
+        <v>6.2460556861313847</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="11"/>
@@ -27824,7 +27824,7 @@
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
     </row>
-    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -27892,10 +27892,10 @@
         <v>16.711583939283557</v>
       </c>
       <c r="W73" s="20">
-        <v>-0.26368704635231666</v>
+        <v>-6.9901096837895693E-2</v>
       </c>
       <c r="X73" s="20">
-        <v>8.3796020358751946</v>
+        <v>8.4078265485461259</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="11"/>
@@ -27965,7 +27965,7 @@
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
     </row>
-    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>8</v>
       </c>
@@ -28033,10 +28033,10 @@
         <v>-2.1869630230883104</v>
       </c>
       <c r="W74" s="20">
-        <v>6.9777498683322392</v>
+        <v>6.1479931125393676</v>
       </c>
       <c r="X74" s="20">
-        <v>3.3318363701766032</v>
+        <v>3.3710071839047231</v>
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="11"/>
@@ -28106,7 +28106,7 @@
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
     </row>
-    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -28199,7 +28199,7 @@
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
     </row>
-    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>7</v>
       </c>
@@ -28267,10 +28267,10 @@
         <v>14.522457605927457</v>
       </c>
       <c r="W76" s="20">
-        <v>3.6620345376806966</v>
+        <v>3.6276953447339935</v>
       </c>
       <c r="X76" s="20">
-        <v>7.3699313342488182</v>
+        <v>7.3934470331565478</v>
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="11"/>
@@ -28340,7 +28340,7 @@
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
     </row>
-    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -28367,7 +28367,7 @@
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
     </row>
-    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>0</v>
       </c>
@@ -28396,7 +28396,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -28489,7 +28489,7 @@
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
     </row>
-    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -28583,7 +28583,7 @@
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
     </row>
-    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -28612,9 +28612,9 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28641,7 +28641,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -28668,7 +28668,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -28697,9 +28697,9 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28726,7 +28726,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>6</v>
       </c>
@@ -28755,7 +28755,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -28782,7 +28782,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="1" t="s">
         <v>22</v>
@@ -28811,7 +28811,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>4</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -28915,7 +28915,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -28986,10 +28986,10 @@
         <v>108.72022647764786</v>
       </c>
       <c r="X91" s="20">
-        <v>113.11879476532232</v>
+        <v>113.10500032659951</v>
       </c>
       <c r="Y91" s="20">
-        <v>117.59130768369441</v>
+        <v>117.64016024571006</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
@@ -29063,7 +29063,7 @@
       <c r="CQ91" s="11"/>
       <c r="CR91" s="11"/>
     </row>
-    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -29134,10 +29134,10 @@
         <v>109.79495283755224</v>
       </c>
       <c r="X92" s="20">
-        <v>112.35612362524886</v>
+        <v>112.38448771930027</v>
       </c>
       <c r="Y92" s="20">
-        <v>117.30454947853562</v>
+        <v>117.33320459831127</v>
       </c>
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
@@ -29211,7 +29211,7 @@
       <c r="CQ92" s="11"/>
       <c r="CR92" s="11"/>
     </row>
-    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>8</v>
       </c>
@@ -29282,10 +29282,10 @@
         <v>114.70591003589554</v>
       </c>
       <c r="X93" s="20">
-        <v>118.84928276479094</v>
+        <v>118.69791344729632</v>
       </c>
       <c r="Y93" s="20">
-        <v>123.23555070717627</v>
+        <v>123.08699174378307</v>
       </c>
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
@@ -29359,7 +29359,7 @@
       <c r="CQ93" s="11"/>
       <c r="CR93" s="11"/>
     </row>
-    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -29457,7 +29457,7 @@
       <c r="CQ94" s="11"/>
       <c r="CR94" s="11"/>
     </row>
-    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="s">
         <v>7</v>
       </c>
@@ -29528,10 +29528,10 @@
         <v>109.7524403327085</v>
       </c>
       <c r="X95" s="20">
-        <v>113.00133279003639</v>
+        <v>113.00137475625782</v>
       </c>
       <c r="Y95" s="20">
-        <v>117.74412298347012</v>
+        <v>117.76629116097017</v>
       </c>
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
@@ -29605,7 +29605,7 @@
       <c r="CQ95" s="11"/>
       <c r="CR95" s="11"/>
     </row>
-    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -29632,7 +29632,7 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
     </row>
-    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>0</v>
       </c>
@@ -29661,7 +29661,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -29688,7 +29688,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -29715,7 +29715,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -29744,7 +29744,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
@@ -29773,9 +29773,9 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29802,7 +29802,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -29829,7 +29829,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -29858,9 +29858,9 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29887,7 +29887,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>20</v>
       </c>
@@ -29916,7 +29916,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -29943,7 +29943,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="1" t="s">
         <v>22</v>
@@ -29972,7 +29972,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>4</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -30076,7 +30076,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
@@ -30147,10 +30147,10 @@
         <v>30.501089253171216</v>
       </c>
       <c r="X111" s="20">
-        <v>33.035721011359456</v>
+        <v>32.937974816360061</v>
       </c>
       <c r="Y111" s="20">
-        <v>32.613922059233083</v>
+        <v>32.52134197776391</v>
       </c>
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
@@ -30224,7 +30224,7 @@
       <c r="CQ111" s="11"/>
       <c r="CR111" s="11"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
@@ -30295,10 +30295,10 @@
         <v>63.361217198022977</v>
       </c>
       <c r="X112" s="20">
-        <v>60.590157727513315</v>
+        <v>60.743308299246948</v>
       </c>
       <c r="Y112" s="20">
-        <v>61.28150109655639</v>
+        <v>61.426898468698042</v>
       </c>
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
@@ -30372,7 +30372,7 @@
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
@@ -30443,10 +30443,10 @@
         <v>6.1376935488058093</v>
       </c>
       <c r="X113" s="20">
-        <v>6.3741212611272333</v>
+        <v>6.3187168843930026</v>
       </c>
       <c r="Y113" s="20">
-        <v>6.1045768442105244</v>
+        <v>6.05175955353804</v>
       </c>
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
@@ -30520,7 +30520,7 @@
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
     </row>
-    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -30618,7 +30618,7 @@
       <c r="CQ114" s="11"/>
       <c r="CR114" s="11"/>
     </row>
-    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>7</v>
       </c>
@@ -30766,7 +30766,7 @@
       <c r="CQ115" s="11"/>
       <c r="CR115" s="11"/>
     </row>
-    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -30793,7 +30793,7 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
     </row>
-    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>0</v>
       </c>
@@ -30822,7 +30822,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -30920,7 +30920,7 @@
       <c r="CQ118" s="11"/>
       <c r="CR118" s="11"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -31018,7 +31018,7 @@
       <c r="CQ119" s="11"/>
       <c r="CR119" s="11"/>
     </row>
-    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>2</v>
       </c>
@@ -31047,7 +31047,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -31076,9 +31076,9 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -31105,7 +31105,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -31132,7 +31132,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -31161,9 +31161,9 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31190,7 +31190,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>21</v>
       </c>
@@ -31219,7 +31219,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -31246,7 +31246,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="1" t="s">
         <v>22</v>
@@ -31275,7 +31275,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>4</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -31379,7 +31379,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
@@ -31450,10 +31450,10 @@
         <v>30.7906733346396</v>
       </c>
       <c r="X131" s="20">
-        <v>33.001416888397053</v>
+        <v>32.907797402307729</v>
       </c>
       <c r="Y131" s="20">
-        <v>32.656305347373298</v>
+        <v>32.556210568732972</v>
       </c>
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
@@ -31527,7 +31527,7 @@
       <c r="CQ131" s="11"/>
       <c r="CR131" s="11"/>
     </row>
-    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>9</v>
       </c>
@@ -31598,10 +31598,10 @@
         <v>63.336683792949046</v>
       </c>
       <c r="X132" s="20">
-        <v>60.938098932677235</v>
+        <v>61.076732958042498</v>
       </c>
       <c r="Y132" s="20">
-        <v>61.511140307860721</v>
+        <v>61.653630231490006</v>
       </c>
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
@@ -31675,7 +31675,7 @@
       <c r="CQ132" s="11"/>
       <c r="CR132" s="11"/>
     </row>
-    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>8</v>
       </c>
@@ -31746,10 +31746,10 @@
         <v>5.8726428724113502</v>
       </c>
       <c r="X133" s="20">
-        <v>6.0604841789257211</v>
+        <v>6.0154696396497727</v>
       </c>
       <c r="Y133" s="20">
-        <v>5.8325543447659696</v>
+        <v>5.7901591997770199</v>
       </c>
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
@@ -31823,7 +31823,7 @@
       <c r="CQ133" s="11"/>
       <c r="CR133" s="11"/>
     </row>
-    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -31921,7 +31921,7 @@
       <c r="CQ134" s="11"/>
       <c r="CR134" s="11"/>
     </row>
-    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="s">
         <v>7</v>
       </c>
@@ -32069,7 +32069,7 @@
       <c r="CQ135" s="11"/>
       <c r="CR135" s="11"/>
     </row>
-    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -32096,7 +32096,7 @@
       <c r="X136" s="16"/>
       <c r="Y136" s="16"/>
     </row>
-    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>0</v>
       </c>
@@ -32125,7 +32125,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:96" s="23" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -32223,7 +32223,7 @@
       <c r="CQ138" s="22"/>
       <c r="CR138" s="22"/>
     </row>
-    <row r="139" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:96" s="23" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>

--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C61FCD-A9DA-4517-A76B-C70733C522C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78B340-0A1A-4860-A17B-F85FBE9308BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$Y$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$Z$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -713,8 +716,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -758,10 +763,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{57B1582C-6F71-41C2-B9AB-C9DFB29772F6}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1005BD76-40A4-4896-A925-3CF59836D0EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23616,52 +23623,52 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="25" width="10" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="12"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="26" width="10" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23687,8 +23694,9 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -23716,8 +23724,9 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -23793,8 +23802,11 @@
       <c r="Y10" s="8">
         <v>2023</v>
       </c>
+      <c r="Z10" s="8">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -23820,8 +23832,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -23895,9 +23908,11 @@
         <v>135565.05040438523</v>
       </c>
       <c r="Y12" s="10">
-        <v>149807.77649253624</v>
-      </c>
-      <c r="Z12" s="11"/>
+        <v>148785.70788018912</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>172099.96413339669</v>
+      </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -23969,7 +23984,7 @@
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -24043,9 +24058,11 @@
         <v>250005.3417742739</v>
       </c>
       <c r="Y13" s="10">
-        <v>282959.63563620311</v>
-      </c>
-      <c r="Z13" s="11"/>
+        <v>282974.08159853669</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>324512.58839263412</v>
+      </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
@@ -24117,7 +24134,7 @@
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -24191,9 +24208,11 @@
         <v>26006.370388573847</v>
       </c>
       <c r="Y14" s="10">
-        <v>27877.098159198817</v>
-      </c>
-      <c r="Z14" s="11"/>
+        <v>28136.084763259329</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>31672.464315104047</v>
+      </c>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -24265,7 +24284,7 @@
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -24291,7 +24310,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="13"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -24363,7 +24382,7 @@
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
     </row>
-    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
@@ -24437,9 +24456,11 @@
         <v>411576.76256723295</v>
       </c>
       <c r="Y16" s="15">
-        <v>460644.51028793817</v>
-      </c>
-      <c r="Z16" s="11"/>
+        <v>459895.87424198515</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>528285.01684113487</v>
+      </c>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
@@ -24511,7 +24532,7 @@
       <c r="CQ16" s="11"/>
       <c r="CR16" s="11"/>
     </row>
-    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -24537,8 +24558,9 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
     </row>
-    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
@@ -24566,8 +24588,9 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -24593,7 +24616,7 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="13"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -24665,7 +24688,7 @@
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -24691,7 +24714,7 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="13"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
@@ -24763,7 +24786,7 @@
       <c r="CQ20" s="11"/>
       <c r="CR20" s="11"/>
     </row>
-    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -24791,8 +24814,9 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -24820,10 +24844,11 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24849,8 +24874,9 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -24876,8 +24902,9 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -24905,10 +24932,11 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24934,8 +24962,9 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -24963,8 +24992,9 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -24990,8 +25020,9 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -25019,8 +25050,9 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
@@ -25096,8 +25128,11 @@
       <c r="Y30" s="18">
         <v>2023</v>
       </c>
+      <c r="Z30" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -25123,8 +25158,9 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -25198,9 +25234,11 @@
         <v>119857.69861007963</v>
       </c>
       <c r="Y32" s="10">
-        <v>127344.07720938073</v>
-      </c>
-      <c r="Z32" s="11"/>
+        <v>126475.2679437249</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>140444.48264015571</v>
+      </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
@@ -25272,7 +25310,7 @@
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -25346,9 +25384,11 @@
         <v>222455.3822754485</v>
       </c>
       <c r="Y33" s="10">
-        <v>241159.04496507344</v>
-      </c>
-      <c r="Z33" s="11"/>
+        <v>241174.52130527215</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>268036.67233009666</v>
+      </c>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
@@ -25420,7 +25460,7 @@
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -25494,9 +25534,11 @@
         <v>21909.711496420761</v>
       </c>
       <c r="Y34" s="10">
-        <v>22648.289444937906</v>
-      </c>
-      <c r="Z34" s="11"/>
+        <v>22859.857467594808</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>24699.621336812539</v>
+      </c>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
@@ -25568,7 +25610,7 @@
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -25594,7 +25636,7 @@
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
-      <c r="Z35" s="11"/>
+      <c r="Z35" s="13"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
@@ -25666,7 +25708,7 @@
       <c r="CQ35" s="11"/>
       <c r="CR35" s="11"/>
     </row>
-    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
@@ -25740,9 +25782,11 @@
         <v>364222.79238194891</v>
       </c>
       <c r="Y36" s="15">
-        <v>391151.41161939205</v>
-      </c>
-      <c r="Z36" s="11"/>
+        <v>390509.64671659184</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>433180.77630706492</v>
+      </c>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -25814,7 +25858,7 @@
       <c r="CQ36" s="11"/>
       <c r="CR36" s="11"/>
     </row>
-    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -25840,8 +25884,9 @@
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
     </row>
-    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>0</v>
       </c>
@@ -25869,8 +25914,9 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -25896,7 +25942,7 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
-      <c r="Z39" s="11"/>
+      <c r="Z39" s="13"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
@@ -25968,7 +26014,7 @@
       <c r="CQ39" s="11"/>
       <c r="CR39" s="11"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -25994,7 +26040,7 @@
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
-      <c r="Z40" s="11"/>
+      <c r="Z40" s="13"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
@@ -26066,7 +26112,7 @@
       <c r="CQ40" s="11"/>
       <c r="CR40" s="11"/>
     </row>
-    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -26094,8 +26140,9 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -26123,10 +26170,11 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26152,8 +26200,9 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -26179,8 +26228,9 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -26208,10 +26258,11 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26237,8 +26288,9 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -26266,8 +26318,9 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -26293,8 +26346,9 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -26322,8 +26376,9 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
@@ -26396,9 +26451,12 @@
       <c r="X50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="Y50" s="19"/>
+      <c r="Y50" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -26424,8 +26482,9 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -26496,10 +26555,12 @@
         <v>15.219749119630961</v>
       </c>
       <c r="X52" s="20">
-        <v>10.506193185976414</v>
-      </c>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="11"/>
+        <v>9.7522609524853152</v>
+      </c>
+      <c r="Y52" s="20">
+        <v>15.669688026743515</v>
+      </c>
+      <c r="Z52" s="20"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
@@ -26566,7 +26627,7 @@
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
     </row>
-    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -26637,10 +26698,12 @@
         <v>2.2869693253311283</v>
       </c>
       <c r="X53" s="20">
-        <v>13.181435895751051</v>
-      </c>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="11"/>
+        <v>13.187214157219799</v>
+      </c>
+      <c r="Y53" s="20">
+        <v>14.679261987332552</v>
+      </c>
+      <c r="Z53" s="20"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
@@ -26707,7 +26770,7 @@
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -26778,10 +26841,12 @@
         <v>9.8421632776686039</v>
       </c>
       <c r="X54" s="20">
-        <v>7.1933443332288078</v>
-      </c>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="11"/>
+        <v>8.1892026563660494</v>
+      </c>
+      <c r="Y54" s="20">
+        <v>12.568840269000731</v>
+      </c>
+      <c r="Z54" s="20"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
@@ -26848,7 +26913,7 @@
       <c r="CL54" s="11"/>
       <c r="CM54" s="11"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -26874,7 +26939,7 @@
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
-      <c r="Z55" s="11"/>
+      <c r="Z55" s="13"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
@@ -26941,7 +27006,7 @@
       <c r="CL55" s="11"/>
       <c r="CM55" s="11"/>
     </row>
-    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
@@ -27012,10 +27077,12 @@
         <v>6.6953226851189811</v>
       </c>
       <c r="X56" s="20">
-        <v>11.921894573114969</v>
-      </c>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="11"/>
+        <v>11.739999939102262</v>
+      </c>
+      <c r="Y56" s="20">
+        <v>14.870571020423014</v>
+      </c>
+      <c r="Z56" s="20"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
@@ -27082,7 +27149,7 @@
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
     </row>
-    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -27108,8 +27175,9 @@
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
     </row>
-    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>0</v>
       </c>
@@ -27137,8 +27205,9 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -27164,7 +27233,7 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
-      <c r="Z59" s="11"/>
+      <c r="Z59" s="13"/>
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
@@ -27231,7 +27300,7 @@
       <c r="CL59" s="11"/>
       <c r="CM59" s="11"/>
     </row>
-    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -27257,7 +27326,7 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
-      <c r="Z60" s="11"/>
+      <c r="Z60" s="13"/>
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
@@ -27324,7 +27393,7 @@
       <c r="CL60" s="11"/>
       <c r="CM60" s="11"/>
     </row>
-    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -27352,8 +27421,9 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>1</v>
       </c>
@@ -27381,10 +27451,11 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27410,8 +27481,9 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -27437,8 +27509,9 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
@@ -27466,10 +27539,11 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27495,8 +27569,9 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
@@ -27524,8 +27599,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -27551,8 +27627,9 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="2" t="s">
         <v>22</v>
@@ -27580,8 +27657,9 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>4</v>
       </c>
@@ -27654,9 +27732,12 @@
       <c r="X70" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Y70" s="8"/>
+      <c r="Y70" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -27682,8 +27763,9 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -27754,10 +27836,12 @@
         <v>10.752992200275585</v>
       </c>
       <c r="X72" s="20">
-        <v>6.2460556861313847</v>
-      </c>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="11"/>
+        <v>5.521188384547159</v>
+      </c>
+      <c r="Y72" s="20">
+        <v>11.045016882388722</v>
+      </c>
+      <c r="Z72" s="20"/>
       <c r="AA72" s="11"/>
       <c r="AB72" s="11"/>
       <c r="AC72" s="11"/>
@@ -27824,7 +27908,7 @@
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
     </row>
-    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -27895,10 +27979,12 @@
         <v>-6.9901096837895693E-2</v>
       </c>
       <c r="X73" s="20">
-        <v>8.4078265485461259</v>
-      </c>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="11"/>
+        <v>8.4147836021540883</v>
+      </c>
+      <c r="Y73" s="20">
+        <v>11.138055081209487</v>
+      </c>
+      <c r="Z73" s="20"/>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
       <c r="AC73" s="11"/>
@@ -27965,7 +28051,7 @@
       <c r="CL73" s="11"/>
       <c r="CM73" s="11"/>
     </row>
-    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>8</v>
       </c>
@@ -28036,10 +28122,12 @@
         <v>6.1479931125393676</v>
       </c>
       <c r="X74" s="20">
-        <v>3.3710071839047231</v>
-      </c>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="11"/>
+        <v>4.3366430056793064</v>
+      </c>
+      <c r="Y74" s="20">
+        <v>8.048011112167714</v>
+      </c>
+      <c r="Z74" s="20"/>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
       <c r="AC74" s="11"/>
@@ -28106,7 +28194,7 @@
       <c r="CL74" s="11"/>
       <c r="CM74" s="11"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -28132,7 +28220,7 @@
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
-      <c r="Z75" s="11"/>
+      <c r="Z75" s="13"/>
       <c r="AA75" s="11"/>
       <c r="AB75" s="11"/>
       <c r="AC75" s="11"/>
@@ -28199,7 +28287,7 @@
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
     </row>
-    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>7</v>
       </c>
@@ -28270,10 +28358,12 @@
         <v>3.6276953447339935</v>
       </c>
       <c r="X76" s="20">
-        <v>7.3934470331565478</v>
-      </c>
-      <c r="Y76" s="20"/>
-      <c r="Z76" s="11"/>
+        <v>7.2172458408579701</v>
+      </c>
+      <c r="Y76" s="20">
+        <v>10.927035977024445</v>
+      </c>
+      <c r="Z76" s="20"/>
       <c r="AA76" s="11"/>
       <c r="AB76" s="11"/>
       <c r="AC76" s="11"/>
@@ -28340,7 +28430,7 @@
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
     </row>
-    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -28366,8 +28456,9 @@
       <c r="W77" s="16"/>
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
     </row>
-    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
         <v>0</v>
       </c>
@@ -28395,8 +28486,9 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -28422,7 +28514,7 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
-      <c r="Z79" s="11"/>
+      <c r="Z79" s="13"/>
       <c r="AA79" s="11"/>
       <c r="AB79" s="11"/>
       <c r="AC79" s="11"/>
@@ -28489,7 +28581,7 @@
       <c r="CL79" s="11"/>
       <c r="CM79" s="11"/>
     </row>
-    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -28515,7 +28607,7 @@
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
-      <c r="Z80" s="11"/>
+      <c r="Z80" s="13"/>
       <c r="AA80" s="11"/>
       <c r="AB80" s="11"/>
       <c r="AC80" s="11"/>
@@ -28583,7 +28675,7 @@
       <c r="CM80" s="11"/>
       <c r="CN80" s="11"/>
     </row>
-    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
@@ -28611,10 +28703,11 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28640,8 +28733,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -28667,8 +28761,9 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -28696,10 +28791,11 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28725,8 +28821,9 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>6</v>
       </c>
@@ -28754,8 +28851,9 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -28781,8 +28879,9 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="1" t="s">
         <v>22</v>
@@ -28810,8 +28909,9 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>4</v>
       </c>
@@ -28887,8 +28987,11 @@
       <c r="Y89" s="18">
         <v>2023</v>
       </c>
+      <c r="Z89" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -28914,8 +29017,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -28989,9 +29093,11 @@
         <v>113.10500032659951</v>
       </c>
       <c r="Y91" s="20">
-        <v>117.64016024571006</v>
-      </c>
-      <c r="Z91" s="11"/>
+        <v>117.64016024571005</v>
+      </c>
+      <c r="Z91" s="20">
+        <v>122.5394980978698</v>
+      </c>
       <c r="AA91" s="11"/>
       <c r="AB91" s="11"/>
       <c r="AC91" s="11"/>
@@ -29063,7 +29169,7 @@
       <c r="CQ91" s="11"/>
       <c r="CR91" s="11"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -29137,9 +29243,11 @@
         <v>112.38448771930027</v>
       </c>
       <c r="Y92" s="20">
-        <v>117.33320459831127</v>
-      </c>
-      <c r="Z92" s="11"/>
+        <v>117.33166508097088</v>
+      </c>
+      <c r="Z92" s="20">
+        <v>121.07021982163148</v>
+      </c>
       <c r="AA92" s="11"/>
       <c r="AB92" s="11"/>
       <c r="AC92" s="11"/>
@@ -29211,7 +29319,7 @@
       <c r="CQ92" s="11"/>
       <c r="CR92" s="11"/>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>8</v>
       </c>
@@ -29285,9 +29393,11 @@
         <v>118.69791344729632</v>
       </c>
       <c r="Y93" s="20">
-        <v>123.08699174378307</v>
-      </c>
-      <c r="Z93" s="11"/>
+        <v>123.08075325116914</v>
+      </c>
+      <c r="Z93" s="20">
+        <v>128.2305663038612</v>
+      </c>
       <c r="AA93" s="11"/>
       <c r="AB93" s="11"/>
       <c r="AC93" s="11"/>
@@ -29359,7 +29469,7 @@
       <c r="CQ93" s="11"/>
       <c r="CR93" s="11"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -29385,7 +29495,7 @@
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
-      <c r="Z94" s="11"/>
+      <c r="Z94" s="13"/>
       <c r="AA94" s="11"/>
       <c r="AB94" s="11"/>
       <c r="AC94" s="11"/>
@@ -29457,7 +29567,7 @@
       <c r="CQ94" s="11"/>
       <c r="CR94" s="11"/>
     </row>
-    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>7</v>
       </c>
@@ -29531,9 +29641,11 @@
         <v>113.00137475625782</v>
       </c>
       <c r="Y95" s="20">
-        <v>117.76629116097017</v>
-      </c>
-      <c r="Z95" s="11"/>
+        <v>117.768121250984</v>
+      </c>
+      <c r="Z95" s="20">
+        <v>121.95486174267675</v>
+      </c>
       <c r="AA95" s="11"/>
       <c r="AB95" s="11"/>
       <c r="AC95" s="11"/>
@@ -29605,7 +29717,7 @@
       <c r="CQ95" s="11"/>
       <c r="CR95" s="11"/>
     </row>
-    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -29631,8 +29743,9 @@
       <c r="W96" s="16"/>
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
     </row>
-    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>0</v>
       </c>
@@ -29660,8 +29773,9 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -29687,8 +29801,9 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -29714,8 +29829,9 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>2</v>
       </c>
@@ -29743,8 +29859,9 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
@@ -29772,10 +29889,11 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29801,8 +29919,9 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -29828,8 +29947,9 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>16</v>
       </c>
@@ -29857,10 +29977,11 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -29886,8 +30007,9 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>20</v>
       </c>
@@ -29915,8 +30037,9 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -29942,8 +30065,9 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="1" t="s">
         <v>22</v>
@@ -29971,8 +30095,9 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>4</v>
       </c>
@@ -30048,8 +30173,11 @@
       <c r="Y109" s="18">
         <v>2023</v>
       </c>
+      <c r="Z109" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -30075,8 +30203,9 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
@@ -30150,9 +30279,11 @@
         <v>32.937974816360061</v>
       </c>
       <c r="Y111" s="20">
-        <v>32.52134197776391</v>
-      </c>
-      <c r="Z111" s="11"/>
+        <v>32.352042323802621</v>
+      </c>
+      <c r="Z111" s="20">
+        <v>32.577104904936263</v>
+      </c>
       <c r="AA111" s="11"/>
       <c r="AB111" s="11"/>
       <c r="AC111" s="11"/>
@@ -30224,7 +30355,7 @@
       <c r="CQ111" s="11"/>
       <c r="CR111" s="11"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
@@ -30298,9 +30429,11 @@
         <v>60.743308299246948</v>
       </c>
       <c r="Y112" s="20">
-        <v>61.426898468698042</v>
-      </c>
-      <c r="Z112" s="11"/>
+        <v>61.530032654661994</v>
+      </c>
+      <c r="Z112" s="20">
+        <v>61.427558618460885</v>
+      </c>
       <c r="AA112" s="11"/>
       <c r="AB112" s="11"/>
       <c r="AC112" s="11"/>
@@ -30372,7 +30505,7 @@
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
@@ -30446,9 +30579,11 @@
         <v>6.3187168843930026</v>
       </c>
       <c r="Y113" s="20">
-        <v>6.05175955353804</v>
-      </c>
-      <c r="Z113" s="11"/>
+        <v>6.1179250215353882</v>
+      </c>
+      <c r="Z113" s="20">
+        <v>5.9953364766028461</v>
+      </c>
       <c r="AA113" s="11"/>
       <c r="AB113" s="11"/>
       <c r="AC113" s="11"/>
@@ -30520,7 +30655,7 @@
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -30546,7 +30681,7 @@
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
-      <c r="Z114" s="11"/>
+      <c r="Z114" s="13"/>
       <c r="AA114" s="11"/>
       <c r="AB114" s="11"/>
       <c r="AC114" s="11"/>
@@ -30618,7 +30753,7 @@
       <c r="CQ114" s="11"/>
       <c r="CR114" s="11"/>
     </row>
-    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>7</v>
       </c>
@@ -30694,7 +30829,9 @@
       <c r="Y115" s="20">
         <v>100</v>
       </c>
-      <c r="Z115" s="11"/>
+      <c r="Z115" s="20">
+        <v>100</v>
+      </c>
       <c r="AA115" s="11"/>
       <c r="AB115" s="11"/>
       <c r="AC115" s="11"/>
@@ -30766,7 +30903,7 @@
       <c r="CQ115" s="11"/>
       <c r="CR115" s="11"/>
     </row>
-    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -30792,8 +30929,9 @@
       <c r="W116" s="16"/>
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
+      <c r="Z116" s="16"/>
     </row>
-    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
         <v>0</v>
       </c>
@@ -30821,8 +30959,9 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -30848,7 +30987,7 @@
       <c r="W118" s="13"/>
       <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
-      <c r="Z118" s="11"/>
+      <c r="Z118" s="13"/>
       <c r="AA118" s="11"/>
       <c r="AB118" s="11"/>
       <c r="AC118" s="11"/>
@@ -30920,7 +31059,7 @@
       <c r="CQ118" s="11"/>
       <c r="CR118" s="11"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -30946,7 +31085,7 @@
       <c r="W119" s="13"/>
       <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
-      <c r="Z119" s="11"/>
+      <c r="Z119" s="13"/>
       <c r="AA119" s="11"/>
       <c r="AB119" s="11"/>
       <c r="AC119" s="11"/>
@@ -31018,7 +31157,7 @@
       <c r="CQ119" s="11"/>
       <c r="CR119" s="11"/>
     </row>
-    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>2</v>
       </c>
@@ -31046,8 +31185,9 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -31075,10 +31215,11 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -31104,8 +31245,9 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -31131,8 +31273,9 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -31160,10 +31303,11 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31189,8 +31333,9 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>21</v>
       </c>
@@ -31218,8 +31363,9 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -31245,8 +31391,9 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="1" t="s">
         <v>22</v>
@@ -31274,8 +31421,9 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>4</v>
       </c>
@@ -31351,8 +31499,11 @@
       <c r="Y129" s="18">
         <v>2023</v>
       </c>
+      <c r="Z129" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -31378,8 +31529,9 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
@@ -31453,9 +31605,11 @@
         <v>32.907797402307729</v>
       </c>
       <c r="Y131" s="20">
-        <v>32.556210568732972</v>
-      </c>
-      <c r="Z131" s="11"/>
+        <v>32.387232686088538</v>
+      </c>
+      <c r="Z131" s="20">
+        <v>32.421679428498024</v>
+      </c>
       <c r="AA131" s="11"/>
       <c r="AB131" s="11"/>
       <c r="AC131" s="11"/>
@@ -31527,7 +31681,7 @@
       <c r="CQ131" s="11"/>
       <c r="CR131" s="11"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>9</v>
       </c>
@@ -31601,9 +31755,11 @@
         <v>61.076732958042498</v>
       </c>
       <c r="Y132" s="20">
-        <v>61.653630231490006</v>
-      </c>
-      <c r="Z132" s="11"/>
+        <v>61.758915133869138</v>
+      </c>
+      <c r="Z132" s="20">
+        <v>61.876400567714931</v>
+      </c>
       <c r="AA132" s="11"/>
       <c r="AB132" s="11"/>
       <c r="AC132" s="11"/>
@@ -31675,7 +31831,7 @@
       <c r="CQ132" s="11"/>
       <c r="CR132" s="11"/>
     </row>
-    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>8</v>
       </c>
@@ -31749,9 +31905,11 @@
         <v>6.0154696396497727</v>
       </c>
       <c r="Y133" s="20">
-        <v>5.7901591997770199</v>
-      </c>
-      <c r="Z133" s="11"/>
+        <v>5.8538521800423284</v>
+      </c>
+      <c r="Z133" s="20">
+        <v>5.701920003787043</v>
+      </c>
       <c r="AA133" s="11"/>
       <c r="AB133" s="11"/>
       <c r="AC133" s="11"/>
@@ -31823,7 +31981,7 @@
       <c r="CQ133" s="11"/>
       <c r="CR133" s="11"/>
     </row>
-    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -31849,7 +32007,7 @@
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
-      <c r="Z134" s="11"/>
+      <c r="Z134" s="13"/>
       <c r="AA134" s="11"/>
       <c r="AB134" s="11"/>
       <c r="AC134" s="11"/>
@@ -31921,7 +32079,7 @@
       <c r="CQ134" s="11"/>
       <c r="CR134" s="11"/>
     </row>
-    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>7</v>
       </c>
@@ -31997,7 +32155,9 @@
       <c r="Y135" s="20">
         <v>100</v>
       </c>
-      <c r="Z135" s="11"/>
+      <c r="Z135" s="20">
+        <v>100</v>
+      </c>
       <c r="AA135" s="11"/>
       <c r="AB135" s="11"/>
       <c r="AC135" s="11"/>
@@ -32069,7 +32229,7 @@
       <c r="CQ135" s="11"/>
       <c r="CR135" s="11"/>
     </row>
-    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -32095,8 +32255,9 @@
       <c r="W136" s="16"/>
       <c r="X136" s="16"/>
       <c r="Y136" s="16"/>
+      <c r="Z136" s="16"/>
     </row>
-    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
         <v>0</v>
       </c>
@@ -32124,8 +32285,9 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:96" s="23" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -32151,7 +32313,7 @@
       <c r="W138" s="21"/>
       <c r="X138" s="21"/>
       <c r="Y138" s="21"/>
-      <c r="Z138" s="22"/>
+      <c r="Z138" s="21"/>
       <c r="AA138" s="22"/>
       <c r="AB138" s="22"/>
       <c r="AC138" s="22"/>
@@ -32223,7 +32385,7 @@
       <c r="CQ138" s="22"/>
       <c r="CR138" s="22"/>
     </row>
-    <row r="139" spans="1:96" s="23" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -32249,7 +32411,7 @@
       <c r="W139" s="21"/>
       <c r="X139" s="21"/>
       <c r="Y139" s="21"/>
-      <c r="Z139" s="22"/>
+      <c r="Z139" s="21"/>
       <c r="AA139" s="22"/>
       <c r="AB139" s="22"/>
       <c r="AC139" s="22"/>
@@ -32327,9 +32489,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="24" man="1"/>
-    <brk id="80" max="24" man="1"/>
-    <brk id="99" max="24" man="1"/>
+    <brk id="40" max="25" man="1"/>
+    <brk id="80" max="25" man="1"/>
+    <brk id="99" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-20HHSW_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78B340-0A1A-4860-A17B-F85FBE9308BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE37718-E3E3-46F8-B6FE-3AF261E7024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HHSW" sheetId="14" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$Z$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HHSW!$A$1:$AA$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23625,14 +23628,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="26" width="10" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="27" width="10" style="12" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23647,7 +23650,7 @@
     </row>
     <row r="3" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23660,7 +23663,7 @@
     </row>
     <row r="6" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23695,6 +23698,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -23725,6 +23729,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -23804,6 +23809,9 @@
       </c>
       <c r="Z10" s="8">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23833,6 +23841,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -23913,7 +23922,9 @@
       <c r="Z12" s="10">
         <v>172099.96413339669</v>
       </c>
-      <c r="AA12" s="11"/>
+      <c r="AA12" s="10">
+        <v>199823.8255746442</v>
+      </c>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
@@ -24063,7 +24074,9 @@
       <c r="Z13" s="10">
         <v>324512.58839263412</v>
       </c>
-      <c r="AA13" s="11"/>
+      <c r="AA13" s="10">
+        <v>376464.78472241724</v>
+      </c>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -24213,7 +24226,9 @@
       <c r="Z14" s="10">
         <v>31672.464315104047</v>
       </c>
-      <c r="AA14" s="11"/>
+      <c r="AA14" s="10">
+        <v>34497.713064807976</v>
+      </c>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
@@ -24311,7 +24326,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="13"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
@@ -24461,7 +24476,9 @@
       <c r="Z16" s="15">
         <v>528285.01684113487</v>
       </c>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="15">
+        <v>610786.32336186944</v>
+      </c>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
@@ -24559,6 +24576,7 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
     </row>
     <row r="18" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
@@ -24589,6 +24607,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -24617,7 +24636,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="11"/>
+      <c r="AA19" s="13"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
@@ -24715,7 +24734,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="11"/>
+      <c r="AA20" s="13"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
@@ -24815,6 +24834,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -24845,10 +24865,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -24875,6 +24896,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -24903,6 +24925,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -24933,10 +24956,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -24963,6 +24987,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -24993,6 +25018,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -25021,6 +25047,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -25051,6 +25078,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -25130,6 +25158,9 @@
       </c>
       <c r="Z30" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA30" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25159,6 +25190,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -25239,7 +25271,9 @@
       <c r="Z32" s="10">
         <v>140444.48264015571</v>
       </c>
-      <c r="AA32" s="11"/>
+      <c r="AA32" s="10">
+        <v>155520.8855450229</v>
+      </c>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
@@ -25389,7 +25423,9 @@
       <c r="Z33" s="10">
         <v>268036.67233009666</v>
       </c>
-      <c r="AA33" s="11"/>
+      <c r="AA33" s="10">
+        <v>302192.93689616158</v>
+      </c>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
@@ -25539,7 +25575,9 @@
       <c r="Z34" s="10">
         <v>24699.621336812539</v>
       </c>
-      <c r="AA34" s="11"/>
+      <c r="AA34" s="10">
+        <v>25806.004147873085</v>
+      </c>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
@@ -25637,7 +25675,7 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
-      <c r="AA35" s="11"/>
+      <c r="AA35" s="13"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
@@ -25787,7 +25825,9 @@
       <c r="Z36" s="15">
         <v>433180.77630706492</v>
       </c>
-      <c r="AA36" s="11"/>
+      <c r="AA36" s="15">
+        <v>483519.82658905757</v>
+      </c>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
@@ -25885,6 +25925,7 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
     </row>
     <row r="38" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
@@ -25915,6 +25956,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
     </row>
     <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
@@ -25943,7 +25985,7 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
-      <c r="AA39" s="11"/>
+      <c r="AA39" s="13"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
@@ -26041,7 +26083,7 @@
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
-      <c r="AA40" s="11"/>
+      <c r="AA40" s="13"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
@@ -26141,6 +26183,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
     </row>
     <row r="42" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -26171,10 +26214,11 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
     </row>
     <row r="43" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -26201,6 +26245,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
     </row>
     <row r="44" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -26229,6 +26274,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
     </row>
     <row r="45" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -26259,10 +26305,11 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
     </row>
     <row r="46" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26289,6 +26336,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
     </row>
     <row r="47" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -26319,6 +26367,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
     </row>
     <row r="48" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -26347,6 +26396,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
     </row>
     <row r="49" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -26377,6 +26427,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -26454,7 +26505,10 @@
       <c r="Y50" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Z50" s="19"/>
+      <c r="Z50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" s="19"/>
     </row>
     <row r="51" spans="1:91" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
@@ -26483,6 +26537,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
     </row>
     <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -26560,8 +26615,10 @@
       <c r="Y52" s="20">
         <v>15.669688026743515</v>
       </c>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="11"/>
+      <c r="Z52" s="20">
+        <v>16.10916166127636</v>
+      </c>
+      <c r="AA52" s="20"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
@@ -26703,8 +26760,10 @@
       <c r="Y53" s="20">
         <v>14.679261987332552</v>
       </c>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="11"/>
+      <c r="Z53" s="20">
+        <v>16.009300775390912</v>
+      </c>
+      <c r="AA53" s="20"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
@@ -26846,8 +26905,10 @@
       <c r="Y54" s="20">
         <v>12.568840269000731</v>
       </c>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="11"/>
+      <c r="Z54" s="20">
+        <v>8.9202050134021817</v>
+      </c>
+      <c r="AA54" s="20"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
@@ -26940,7 +27001,7 @@
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
-      <c r="AA55" s="11"/>
+      <c r="AA55" s="13"/>
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
@@ -27082,8 +27143,10 @@
       <c r="Y56" s="20">
         <v>14.870571020423014</v>
       </c>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="11"/>
+      <c r="Z56" s="20">
+        <v>15.616817416865004</v>
+      </c>
+      <c r="AA56" s="20"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
@@ -27176,6 +27239,7 @@
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
     </row>
     <row r="58" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
@@ -27206,6 +27270,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
     </row>
     <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59"/>
@@ -27234,7 +27299,7 @@
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
-      <c r="AA59" s="11"/>
+      <c r="AA59" s="13"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
@@ -27327,7 +27392,7 @@
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
-      <c r="AA60" s="11"/>
+      <c r="AA60" s="13"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
@@ -27422,6 +27487,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -27452,10 +27518,11 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -27482,6 +27549,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:91" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
@@ -27510,6 +27578,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -27540,10 +27609,11 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -27570,6 +27640,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -27600,6 +27671,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
@@ -27628,6 +27700,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
@@ -27658,6 +27731,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
     </row>
     <row r="70" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
@@ -27735,7 +27809,10 @@
       <c r="Y70" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Z70" s="8"/>
+      <c r="Z70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA70" s="8"/>
     </row>
     <row r="71" spans="1:92" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
@@ -27764,6 +27841,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -27841,8 +27919,10 @@
       <c r="Y72" s="20">
         <v>11.045016882388722</v>
       </c>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="11"/>
+      <c r="Z72" s="20">
+        <v>10.734777629887887</v>
+      </c>
+      <c r="AA72" s="20"/>
       <c r="AB72" s="11"/>
       <c r="AC72" s="11"/>
       <c r="AD72" s="11"/>
@@ -27984,8 +28064,10 @@
       <c r="Y73" s="20">
         <v>11.138055081209487</v>
       </c>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="11"/>
+      <c r="Z73" s="20">
+        <v>12.743131105582563</v>
+      </c>
+      <c r="AA73" s="20"/>
       <c r="AB73" s="11"/>
       <c r="AC73" s="11"/>
       <c r="AD73" s="11"/>
@@ -28127,8 +28209,10 @@
       <c r="Y74" s="20">
         <v>8.048011112167714</v>
       </c>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="11"/>
+      <c r="Z74" s="20">
+        <v>4.4793513065383763</v>
+      </c>
+      <c r="AA74" s="20"/>
       <c r="AB74" s="11"/>
       <c r="AC74" s="11"/>
       <c r="AD74" s="11"/>
@@ -28221,7 +28305,7 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
-      <c r="AA75" s="11"/>
+      <c r="AA75" s="13"/>
       <c r="AB75" s="11"/>
       <c r="AC75" s="11"/>
       <c r="AD75" s="11"/>
@@ -28363,8 +28447,10 @@
       <c r="Y76" s="20">
         <v>10.927035977024445</v>
       </c>
-      <c r="Z76" s="20"/>
-      <c r="AA76" s="11"/>
+      <c r="Z76" s="20">
+        <v>11.620795066471118</v>
+      </c>
+      <c r="AA76" s="20"/>
       <c r="AB76" s="11"/>
       <c r="AC76" s="11"/>
       <c r="AD76" s="11"/>
@@ -28457,6 +28543,7 @@
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
     </row>
     <row r="78" spans="1:92" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
@@ -28487,6 +28574,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
     </row>
     <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
@@ -28515,7 +28603,7 @@
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
-      <c r="AA79" s="11"/>
+      <c r="AA79" s="13"/>
       <c r="AB79" s="11"/>
       <c r="AC79" s="11"/>
       <c r="AD79" s="11"/>
@@ -28608,7 +28696,7 @@
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
-      <c r="AA80" s="11"/>
+      <c r="AA80" s="13"/>
       <c r="AB80" s="11"/>
       <c r="AC80" s="11"/>
       <c r="AD80" s="11"/>
@@ -28704,10 +28792,11 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
     </row>
     <row r="82" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -28734,6 +28823,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
     </row>
     <row r="83" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -28762,6 +28852,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
     </row>
     <row r="84" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
@@ -28792,10 +28883,11 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
     </row>
     <row r="85" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -28822,6 +28914,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
     </row>
     <row r="86" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
@@ -28852,6 +28945,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
     </row>
     <row r="87" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
@@ -28880,6 +28974,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
     </row>
     <row r="88" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
@@ -28910,6 +29005,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
     </row>
     <row r="89" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
@@ -28989,6 +29085,9 @@
       </c>
       <c r="Z89" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA89" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="90" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29018,6 +29117,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
     </row>
     <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
@@ -29098,7 +29198,9 @@
       <c r="Z91" s="20">
         <v>122.5394980978698</v>
       </c>
-      <c r="AA91" s="11"/>
+      <c r="AA91" s="20">
+        <v>128.48681054918231</v>
+      </c>
       <c r="AB91" s="11"/>
       <c r="AC91" s="11"/>
       <c r="AD91" s="11"/>
@@ -29248,7 +29350,9 @@
       <c r="Z92" s="20">
         <v>121.07021982163148</v>
       </c>
-      <c r="AA92" s="11"/>
+      <c r="AA92" s="20">
+        <v>124.57762533734422</v>
+      </c>
       <c r="AB92" s="11"/>
       <c r="AC92" s="11"/>
       <c r="AD92" s="11"/>
@@ -29398,7 +29502,9 @@
       <c r="Z93" s="20">
         <v>128.2305663038612</v>
       </c>
-      <c r="AA93" s="11"/>
+      <c r="AA93" s="20">
+        <v>133.68095605631086</v>
+      </c>
       <c r="AB93" s="11"/>
       <c r="AC93" s="11"/>
       <c r="AD93" s="11"/>
@@ -29496,7 +29602,7 @@
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
-      <c r="AA94" s="11"/>
+      <c r="AA94" s="13"/>
       <c r="AB94" s="11"/>
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
@@ -29646,7 +29752,9 @@
       <c r="Z95" s="20">
         <v>121.95486174267675</v>
       </c>
-      <c r="AA95" s="11"/>
+      <c r="AA95" s="20">
+        <v>126.32084348445454</v>
+      </c>
       <c r="AB95" s="11"/>
       <c r="AC95" s="11"/>
       <c r="AD95" s="11"/>
@@ -29744,6 +29852,7 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
       <c r="Z96" s="16"/>
+      <c r="AA96" s="16"/>
     </row>
     <row r="97" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
@@ -29774,6 +29883,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98"/>
@@ -29802,6 +29912,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99"/>
@@ -29830,6 +29941,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
     </row>
     <row r="100" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -29860,6 +29972,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
     </row>
     <row r="101" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -29890,10 +30003,11 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
     </row>
     <row r="102" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -29920,6 +30034,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
     </row>
     <row r="103" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
@@ -29948,6 +30063,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
     </row>
     <row r="104" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
@@ -29978,10 +30094,11 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
     </row>
     <row r="105" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -30008,6 +30125,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
     </row>
     <row r="106" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
@@ -30038,6 +30156,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
     </row>
     <row r="107" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
@@ -30066,6 +30185,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
     </row>
     <row r="108" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
@@ -30096,6 +30216,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
     </row>
     <row r="109" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
@@ -30175,6 +30296,9 @@
       </c>
       <c r="Z109" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA109" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="110" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30204,6 +30328,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
     </row>
     <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
@@ -30284,7 +30409,9 @@
       <c r="Z111" s="20">
         <v>32.577104904936263</v>
       </c>
-      <c r="AA111" s="11"/>
+      <c r="AA111" s="20">
+        <v>32.715831696227362</v>
+      </c>
       <c r="AB111" s="11"/>
       <c r="AC111" s="11"/>
       <c r="AD111" s="11"/>
@@ -30434,7 +30561,9 @@
       <c r="Z112" s="20">
         <v>61.427558618460885</v>
       </c>
-      <c r="AA112" s="11"/>
+      <c r="AA112" s="20">
+        <v>61.636086193006498</v>
+      </c>
       <c r="AB112" s="11"/>
       <c r="AC112" s="11"/>
       <c r="AD112" s="11"/>
@@ -30584,7 +30713,9 @@
       <c r="Z113" s="20">
         <v>5.9953364766028461</v>
       </c>
-      <c r="AA113" s="11"/>
+      <c r="AA113" s="20">
+        <v>5.6480821107661399</v>
+      </c>
       <c r="AB113" s="11"/>
       <c r="AC113" s="11"/>
       <c r="AD113" s="11"/>
@@ -30682,7 +30813,7 @@
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
-      <c r="AA114" s="11"/>
+      <c r="AA114" s="13"/>
       <c r="AB114" s="11"/>
       <c r="AC114" s="11"/>
       <c r="AD114" s="11"/>
@@ -30832,7 +30963,9 @@
       <c r="Z115" s="20">
         <v>100</v>
       </c>
-      <c r="AA115" s="11"/>
+      <c r="AA115" s="20">
+        <v>100</v>
+      </c>
       <c r="AB115" s="11"/>
       <c r="AC115" s="11"/>
       <c r="AD115" s="11"/>
@@ -30930,6 +31063,7 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
       <c r="Z116" s="16"/>
+      <c r="AA116" s="16"/>
     </row>
     <row r="117" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
@@ -30960,6 +31094,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
     </row>
     <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
@@ -30988,7 +31123,7 @@
       <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
-      <c r="AA118" s="11"/>
+      <c r="AA118" s="13"/>
       <c r="AB118" s="11"/>
       <c r="AC118" s="11"/>
       <c r="AD118" s="11"/>
@@ -31086,7 +31221,7 @@
       <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
       <c r="Z119" s="13"/>
-      <c r="AA119" s="11"/>
+      <c r="AA119" s="13"/>
       <c r="AB119" s="11"/>
       <c r="AC119" s="11"/>
       <c r="AD119" s="11"/>
@@ -31186,6 +31321,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
     </row>
     <row r="121" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
@@ -31216,10 +31352,11 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
     </row>
     <row r="122" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -31246,6 +31383,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
     </row>
     <row r="123" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
@@ -31274,6 +31412,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
     </row>
     <row r="124" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
@@ -31304,10 +31443,11 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
     </row>
     <row r="125" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -31334,6 +31474,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
     </row>
     <row r="126" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
@@ -31364,6 +31505,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
     </row>
     <row r="127" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
@@ -31392,6 +31534,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
     </row>
     <row r="128" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
@@ -31422,6 +31565,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
     </row>
     <row r="129" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
@@ -31501,6 +31645,9 @@
       </c>
       <c r="Z129" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA129" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="130" spans="1:96" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31530,6 +31677,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
     </row>
     <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
@@ -31610,7 +31758,9 @@
       <c r="Z131" s="20">
         <v>32.421679428498024</v>
       </c>
-      <c r="AA131" s="11"/>
+      <c r="AA131" s="20">
+        <v>32.164324396401589</v>
+      </c>
       <c r="AB131" s="11"/>
       <c r="AC131" s="11"/>
       <c r="AD131" s="11"/>
@@ -31760,7 +31910,9 @@
       <c r="Z132" s="20">
         <v>61.876400567714931</v>
       </c>
-      <c r="AA132" s="11"/>
+      <c r="AA132" s="20">
+        <v>62.498561646985927</v>
+      </c>
       <c r="AB132" s="11"/>
       <c r="AC132" s="11"/>
       <c r="AD132" s="11"/>
@@ -31910,7 +32062,9 @@
       <c r="Z133" s="20">
         <v>5.701920003787043</v>
       </c>
-      <c r="AA133" s="11"/>
+      <c r="AA133" s="20">
+        <v>5.3371139566124866</v>
+      </c>
       <c r="AB133" s="11"/>
       <c r="AC133" s="11"/>
       <c r="AD133" s="11"/>
@@ -32008,7 +32162,7 @@
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
-      <c r="AA134" s="11"/>
+      <c r="AA134" s="13"/>
       <c r="AB134" s="11"/>
       <c r="AC134" s="11"/>
       <c r="AD134" s="11"/>
@@ -32158,7 +32312,9 @@
       <c r="Z135" s="20">
         <v>100</v>
       </c>
-      <c r="AA135" s="11"/>
+      <c r="AA135" s="20">
+        <v>100</v>
+      </c>
       <c r="AB135" s="11"/>
       <c r="AC135" s="11"/>
       <c r="AD135" s="11"/>
@@ -32256,6 +32412,7 @@
       <c r="X136" s="16"/>
       <c r="Y136" s="16"/>
       <c r="Z136" s="16"/>
+      <c r="AA136" s="16"/>
     </row>
     <row r="137" spans="1:96" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
@@ -32286,6 +32443,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
     </row>
     <row r="138" spans="1:96" s="23" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
@@ -32314,7 +32472,7 @@
       <c r="X138" s="21"/>
       <c r="Y138" s="21"/>
       <c r="Z138" s="21"/>
-      <c r="AA138" s="22"/>
+      <c r="AA138" s="21"/>
       <c r="AB138" s="22"/>
       <c r="AC138" s="22"/>
       <c r="AD138" s="22"/>
@@ -32412,7 +32570,7 @@
       <c r="X139" s="21"/>
       <c r="Y139" s="21"/>
       <c r="Z139" s="21"/>
-      <c r="AA139" s="22"/>
+      <c r="AA139" s="21"/>
       <c r="AB139" s="22"/>
       <c r="AC139" s="22"/>
       <c r="AD139" s="22"/>
@@ -32489,9 +32647,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="25" man="1"/>
-    <brk id="80" max="25" man="1"/>
-    <brk id="99" max="25" man="1"/>
+    <brk id="40" max="26" man="1"/>
+    <brk id="80" max="26" man="1"/>
+    <brk id="99" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>